--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -23,7 +23,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
-    <author>LIPENG</author>
   </authors>
   <commentList>
     <comment ref="D3" authorId="0" shapeId="0">
@@ -54,64 +53,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="B40" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>LIPENG:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-单位，分</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B41" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>LIPENG:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-单位，分</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>sheet名</t>
   </si>
@@ -137,15 +84,6 @@
     <t>全局表</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>key,rowId</t>
-  </si>
-  <si>
-    <t>rowId</t>
-  </si>
-  <si>
     <t>服务端的全局表</t>
   </si>
   <si>
@@ -186,9 +124,6 @@
   </si>
   <si>
     <t>string:ea&lt;&gt;</t>
-  </si>
-  <si>
-    <t>行ID</t>
   </si>
   <si>
     <t>键</t>
@@ -324,13 +259,45 @@
   <si>
     <t>最大金币兑换次数</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TiLiShopId</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力的商品货物ID</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>行ID</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,21 +396,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -555,7 +507,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -594,6 +546,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4"/>
@@ -883,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -926,14 +879,14 @@
         <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>7</v>
@@ -948,16 +901,14 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>10</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G3" s="8" t="b">
         <v>1</v>
@@ -986,14 +937,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="23.25" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="6" max="6" width="16.375" customWidth="1"/>
@@ -1003,89 +956,89 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -1093,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
@@ -1110,10 +1063,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
@@ -1131,10 +1084,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
@@ -1152,10 +1105,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -1173,10 +1126,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
@@ -1194,10 +1147,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -1215,10 +1168,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -1236,10 +1189,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -1257,10 +1210,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -1278,10 +1231,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
@@ -1299,10 +1252,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -1320,17 +1273,17 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D15" s="8">
         <v>2</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1341,10 +1294,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D16" s="8">
         <v>5</v>
@@ -1354,7 +1307,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1362,10 +1315,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -1379,18 +1332,28 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="8">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>103</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1401,7 +1364,7 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
@@ -1412,7 +1375,7 @@
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="3"/>
@@ -1423,7 +1386,7 @@
       <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="3"/>
@@ -1434,7 +1397,7 @@
       <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="3"/>
@@ -1445,7 +1408,7 @@
       <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1456,7 +1419,7 @@
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1467,7 +1430,7 @@
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="8"/>
@@ -1478,7 +1441,7 @@
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
+      <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="8"/>
@@ -1489,7 +1452,7 @@
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="8"/>
@@ -1500,7 +1463,7 @@
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="8"/>
@@ -1511,7 +1474,7 @@
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1522,7 +1485,7 @@
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -1533,7 +1496,7 @@
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
@@ -1544,7 +1507,7 @@
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1555,7 +1518,7 @@
       <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
+      <c r="A34" s="8"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -1566,7 +1529,7 @@
       <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
+      <c r="A35" s="8"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1577,7 +1540,7 @@
       <c r="I35" s="7"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1610,7 +1573,7 @@
       <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
+      <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1632,7 +1595,7 @@
       <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
+      <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>

--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11505"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="全局表" sheetId="26" r:id="rId2"/>
+    <sheet name="User表" sheetId="27" r:id="rId3"/>
+    <sheet name="帮助表" sheetId="28" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="130">
   <si>
     <t>sheet名</t>
   </si>
@@ -105,9 +107,6 @@
     <t>valueSA</t>
   </si>
   <si>
-    <t>int:&lt;&gt;</t>
-  </si>
-  <si>
     <t>string:&lt;&gt;</t>
   </si>
   <si>
@@ -180,10 +179,6 @@
     <t>ResetTime</t>
   </si>
   <si>
-    <t>QualityColor</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -221,43 +216,7 @@
     <t>重置时间</t>
   </si>
   <si>
-    <t>品质颜色</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>MailBoxCapacity</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家邮箱容量</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>5:00:00</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>globle.lua2</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>globle.txt</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>EDEFC9,8BEC58,58ECDD,BB1ECB,F89D04</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>#note</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxCoinExchangeTimes</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大金币兑换次数</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -265,32 +224,375 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>Id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>行ID</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>User表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>global.txt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+  </si>
+  <si>
+    <t>唯一键</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>初始等级</t>
+  </si>
+  <si>
+    <t>最大等级</t>
+  </si>
+  <si>
+    <t>初始物品</t>
+  </si>
+  <si>
+    <t>DropItem</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_id:&lt;&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt:&lt;&gt;</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tring:&lt;</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt:&lt;&gt;</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>user.txt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Txt</t>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:&lt;&gt;</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:&lt;</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:&lt;</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>正文</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆  竞技场玩法说明  ◆</t>
+  </si>
+  <si>
+    <t>竞技场是玩家体现个人实力的地方。
+根据战斗的结果获取或者减少竞技积分。
+通过积分进行排名。</t>
+  </si>
+  <si>
+    <t>◆ 芦花古楼玩法说明  ◆</t>
+  </si>
+  <si>
+    <t>芦花古楼分为风、花、雪、月四个关卡。
+每个关卡限定玩家使用特定卡牌进行挑战。
+随着玩家挑战的进度可以获得芦花古币，进而在芦花商店里兑换养成资源。</t>
+  </si>
+  <si>
+    <t>◆  扭蛋玩法说明  ◆</t>
+  </si>
+  <si>
+    <t>寄灵人出现概率公示
+常服曹焱兵  16.7%
+曹玄亮  16.7%
+战斗夏玲  16.7%
+战斗曹焱兵  16.7%
+黑尔·坎普  16.7%
+红莲缇娜  16.7%
+守护灵出现概率公示
+关羽  16.7%
+许褚  16.7%
+唐流雨  16.7%
+于禁  16.7%
+典韦  16.7%
+塞伯罗斯  16.7%</t>
+  </si>
+  <si>
+    <t>◆  获取技能经验  ◆</t>
+  </si>
+  <si>
+    <t>玩家可以通过分解守护灵碎片，获得技能经验。
+技能经验可以用来给守护灵技能升级。</t>
+  </si>
+  <si>
+    <t>◆  个人镇魂  ◆</t>
+  </si>
+  <si>
+    <t>每日都会开放不同的魂体敌人。
+玩家可以通过挑战获得大量养成资源。</t>
+  </si>
+  <si>
+    <t>◆  神器  ◆</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>◆  专属武器  ◆</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器可为所有卡牌加成属性
+神器有多个碎片，碎片可升级
+神器最大等级取决于碎片的最小等级，升级神器大幅提升属性。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个守护灵都有自己的专属武器。
+激活专属武器可以带来外观的变化。
+专属武器可以升级解封。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>global.lua</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>user.lua</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>help.lua</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>常驻内存</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleKey</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailBoxCapacity</t>
+  </si>
+  <si>
+    <t>玩家邮箱容量</t>
+  </si>
+  <si>
+    <t>5:00:00</t>
+  </si>
+  <si>
+    <t>QualityColor</t>
+  </si>
+  <si>
+    <t>品质颜色</t>
+  </si>
+  <si>
+    <t>EDEFC9,8BEC58,58ECDD,BB1ECB,F89D04</t>
+  </si>
+  <si>
+    <t>MaxCoinExchangeTimes</t>
+  </si>
+  <si>
+    <t>最大金币兑换次数</t>
+  </si>
+  <si>
     <t>TiLiShopId</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>体力的商品货物ID</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>行ID</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&gt;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillExpId</t>
+  </si>
+  <si>
+    <t>技能经验的ID</t>
+  </si>
+  <si>
+    <t>ChangeName</t>
+  </si>
+  <si>
+    <t>改变名字钻石消耗</t>
+  </si>
+  <si>
+    <t>OnlineGiftTimeOut</t>
+  </si>
+  <si>
+    <t>在线礼包小时时间</t>
+  </si>
+  <si>
+    <t>FriendListNum</t>
+  </si>
+  <si>
+    <t>好友列表显示数量</t>
+  </si>
+  <si>
+    <t>◆  战斗关卡  ◆</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家可以通过战斗关卡解锁新剧情和增强自己实力</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -507,7 +809,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -515,25 +817,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="12" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -547,6 +834,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4"/>
@@ -834,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -849,87 +1139,154 @@
     <col min="5" max="5" width="29.5" customWidth="1"/>
     <col min="6" max="6" width="79.625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="H1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="D5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -937,11 +1294,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -956,13 +1313,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -984,368 +1341,368 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>69</v>
+      <c r="A2" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>101</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>102</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>103</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>104</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>105</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>106</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>107</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>108</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>109</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>110</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>111</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>112</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="E15" s="3"/>
+      <c r="F15" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>113</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>114</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
         <v>10</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>100</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>100</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>6</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>6</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>10</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>11</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>100</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>12</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="8">
-        <v>2</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>13</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="8">
-        <v>5</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>15</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>65</v>
+      <c r="A18" s="3">
+        <v>115</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
       <c r="E18" s="3">
-        <v>103</v>
+        <v>1203</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1353,312 +1710,352 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="A19" s="3">
+        <v>116</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1401005</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="A20" s="3">
+        <v>117</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="A21" s="3">
+        <v>118</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="A22" s="3">
+        <v>119</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="8"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -1666,4 +2063,231 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>60</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="82.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="231" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -16,6 +16,7 @@
     <sheet name="全局表" sheetId="26" r:id="rId2"/>
     <sheet name="User表" sheetId="27" r:id="rId3"/>
     <sheet name="帮助表" sheetId="28" r:id="rId4"/>
+    <sheet name="等级解锁" sheetId="29" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="176">
   <si>
     <t>sheet名</t>
   </si>
@@ -505,93 +506,278 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>Key</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>常驻内存</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleKey</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>MailBoxCapacity</t>
+  </si>
+  <si>
+    <t>玩家邮箱容量</t>
+  </si>
+  <si>
+    <t>5:00:00</t>
+  </si>
+  <si>
+    <t>QualityColor</t>
+  </si>
+  <si>
+    <t>品质颜色</t>
+  </si>
+  <si>
+    <t>EDEFC9,8BEC58,58ECDD,BB1ECB,F89D04</t>
+  </si>
+  <si>
+    <t>MaxCoinExchangeTimes</t>
+  </si>
+  <si>
+    <t>最大金币兑换次数</t>
+  </si>
+  <si>
+    <t>TiLiShopId</t>
+  </si>
+  <si>
+    <t>体力的商品货物ID</t>
+  </si>
+  <si>
+    <t>SkillExpId</t>
+  </si>
+  <si>
+    <t>技能经验的ID</t>
+  </si>
+  <si>
+    <t>ChangeName</t>
+  </si>
+  <si>
+    <t>改变名字钻石消耗</t>
+  </si>
+  <si>
+    <t>OnlineGiftTimeOut</t>
+  </si>
+  <si>
+    <t>在线礼包小时时间</t>
+  </si>
+  <si>
+    <t>好友列表显示数量</t>
+  </si>
+  <si>
+    <t>◆  战斗关卡  ◆</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家可以通过战斗关卡解锁新剧情和增强自己实力</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardLevel</t>
+  </si>
+  <si>
+    <t>UnlockSkill</t>
+  </si>
+  <si>
+    <t>UnlockSkillBlankAmount</t>
+  </si>
+  <si>
+    <t>UnlockPersonalWeapon</t>
+  </si>
+  <si>
+    <t>卡牌等级</t>
+  </si>
+  <si>
+    <t>进阶到解锁的自身技能 0不解锁 1、2、3解锁对应序号技能</t>
+  </si>
+  <si>
+    <t>进阶到解锁的技能栏 0不解锁 1、2、3解锁对应序号技能</t>
+  </si>
+  <si>
+    <t>进阶到解锁的专属武器0不解锁 1解锁</t>
+  </si>
+  <si>
+    <r>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:&lt;&gt;</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:a&lt;&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#2</t>
+  </si>
+  <si>
     <t>help.lua</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>Key</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>常驻内存</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>SingleKey</t>
+    <t>level_unlock.lua</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&gt;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>MailBoxCapacity</t>
-  </si>
-  <si>
-    <t>玩家邮箱容量</t>
-  </si>
-  <si>
-    <t>5:00:00</t>
-  </si>
-  <si>
-    <t>QualityColor</t>
-  </si>
-  <si>
-    <t>品质颜色</t>
-  </si>
-  <si>
-    <t>EDEFC9,8BEC58,58ECDD,BB1ECB,F89D04</t>
-  </si>
-  <si>
-    <t>MaxCoinExchangeTimes</t>
-  </si>
-  <si>
-    <t>最大金币兑换次数</t>
-  </si>
-  <si>
-    <t>TiLiShopId</t>
-  </si>
-  <si>
-    <t>体力的商品货物ID</t>
-  </si>
-  <si>
-    <t>SkillExpId</t>
-  </si>
-  <si>
-    <t>技能经验的ID</t>
-  </si>
-  <si>
-    <t>ChangeName</t>
-  </si>
-  <si>
-    <t>改变名字钻石消耗</t>
-  </si>
-  <si>
-    <t>OnlineGiftTimeOut</t>
-  </si>
-  <si>
-    <t>在线礼包小时时间</t>
+    <t>ID</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级解锁</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>FriendListNum</t>
-  </si>
-  <si>
-    <t>好友列表显示数量</t>
-  </si>
-  <si>
-    <t>◆  战斗关卡  ◆</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家可以通过战斗关卡解锁新剧情和增强自己实力</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendNumLimit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackNumLimit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友最大数量</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑名单最大数量</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContactsNumLimit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人最大数量</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友申请数量上限</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendApplyLimit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友申请有效时间(天)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendApplyValidity</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendApplyHello</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友申请招呼</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们已经是好友了，快来和我一起游戏吧！</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendValidation</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友招呼</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>这位少侠根骨清奇灵力非凡，不如加个好友？#吾算得今日大吉，若并肩战斗必将无往不胜！#今天份的快乐是你给的，成为我的伙伴好不？#遇到你真是太好了（づ￣3￣）づ╭❤～#小姐姐，我在妳的心裡迷路了，要不要帶我出來</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatMax</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天最大数量</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>JLRSkill1UlockLv</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>JLRSkill2UlockLv</t>
+  </si>
+  <si>
+    <t>SHLSkillUnlockLv</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHLSkillSlot1UnlockLv</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHLSkillSlot2UnlockLv</t>
+  </si>
+  <si>
+    <t>寄灵人技能1等级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人技能2等级</t>
+  </si>
+  <si>
+    <t>守护灵技能解锁等级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵技能槽1解锁等级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵技能槽2解锁等级</t>
+  </si>
+  <si>
+    <t>CollectShopId</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集商店ID</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExWeaponUnlockLv</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器解锁等级</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1124,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1165,10 +1351,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1191,9 +1377,7 @@
       <c r="G2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1235,9 +1419,7 @@
       <c r="G4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1259,12 +1441,12 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -1275,13 +1457,27 @@
       <c r="G6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+    <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -1292,13 +1488,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1306,7 +1502,7 @@
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="23.25" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
     <col min="8" max="8" width="77.25" customWidth="1"/>
     <col min="9" max="9" width="50.375" customWidth="1"/>
   </cols>
@@ -1316,7 +1512,7 @@
         <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
@@ -1342,16 +1538,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -1420,10 +1616,10 @@
         <v>102</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -1640,7 +1836,7 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1651,10 +1847,10 @@
         <v>113</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
@@ -1664,7 +1860,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1672,10 +1868,10 @@
         <v>114</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -1693,10 +1889,10 @@
         <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -1714,10 +1910,10 @@
         <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -1735,10 +1931,10 @@
         <v>117</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -1756,10 +1952,10 @@
         <v>118</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -1777,10 +1973,10 @@
         <v>119</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -1794,165 +1990,315 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="A23" s="3">
+        <v>120</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>30</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="A24" s="3">
+        <v>121</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="A25" s="3">
+        <v>122</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>10</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="A26" s="3">
+        <v>123</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>20</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="A27" s="3">
+        <v>124</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+    <row r="28" spans="1:9" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>125</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="3">
+        <v>2</v>
+      </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+    <row r="29" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>126</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>127</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>30</v>
+      </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="A31" s="3">
+        <v>128</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="A32" s="3">
+        <v>129</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="3">
+        <v>10</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="A33" s="3">
+        <v>130</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="A34" s="3">
+        <v>131</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>10</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="A35" s="3">
+        <v>132</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>20</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="A36" s="3">
+        <v>133</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="A37" s="3">
+        <v>134</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>30</v>
+      </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -1964,7 +2310,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+      <c r="F38" s="7"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
@@ -1975,7 +2321,7 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+      <c r="F39" s="7"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -1986,7 +2332,7 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="7"/>
+      <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -1997,7 +2343,7 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="7"/>
+      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -2021,7 +2367,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="H43" s="8"/>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -2034,28 +2380,6 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -2280,10 +2604,1101 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="32.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>23</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>29</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>31</v>
+      </c>
+      <c r="B34" s="3">
+        <v>31</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" s="3">
+        <v>32</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>33</v>
+      </c>
+      <c r="B36" s="3">
+        <v>33</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3">
+        <v>34</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>35</v>
+      </c>
+      <c r="B38" s="3">
+        <v>35</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>36</v>
+      </c>
+      <c r="B39" s="3">
+        <v>36</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>37</v>
+      </c>
+      <c r="B40" s="3">
+        <v>37</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>38</v>
+      </c>
+      <c r="B41" s="3">
+        <v>38</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>39</v>
+      </c>
+      <c r="B42" s="3">
+        <v>39</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3">
+        <v>40</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>41</v>
+      </c>
+      <c r="B44" s="3">
+        <v>41</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3">
+        <v>42</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>43</v>
+      </c>
+      <c r="B46" s="3">
+        <v>43</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>44</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>45</v>
+      </c>
+      <c r="B48" s="3">
+        <v>45</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>46</v>
+      </c>
+      <c r="B49" s="3">
+        <v>46</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>47</v>
+      </c>
+      <c r="B50" s="3">
+        <v>47</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>48</v>
+      </c>
+      <c r="B51" s="3">
+        <v>48</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>49</v>
+      </c>
+      <c r="B52" s="3">
+        <v>49</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>50</v>
+      </c>
+      <c r="B53" s="3">
+        <v>50</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>51</v>
+      </c>
+      <c r="B54" s="3">
+        <v>51</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>52</v>
+      </c>
+      <c r="B55" s="3">
+        <v>52</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>53</v>
+      </c>
+      <c r="B56" s="3">
+        <v>53</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>54</v>
+      </c>
+      <c r="B57" s="3">
+        <v>54</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>55</v>
+      </c>
+      <c r="B58" s="3">
+        <v>55</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>56</v>
+      </c>
+      <c r="B59" s="3">
+        <v>56</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>57</v>
+      </c>
+      <c r="B60" s="3">
+        <v>57</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>58</v>
+      </c>
+      <c r="B61" s="3">
+        <v>58</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>59</v>
+      </c>
+      <c r="B62" s="3">
+        <v>59</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>60</v>
+      </c>
+      <c r="B63" s="3">
+        <v>60</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -14,9 +14,10 @@
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="全局表" sheetId="26" r:id="rId2"/>
-    <sheet name="User表" sheetId="27" r:id="rId3"/>
-    <sheet name="帮助表" sheetId="28" r:id="rId4"/>
-    <sheet name="等级解锁" sheetId="29" r:id="rId5"/>
+    <sheet name="邮件" sheetId="30" r:id="rId3"/>
+    <sheet name="User表" sheetId="27" r:id="rId4"/>
+    <sheet name="帮助表" sheetId="28" r:id="rId5"/>
+    <sheet name="等级解锁" sheetId="29" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="219">
   <si>
     <t>sheet名</t>
   </si>
@@ -645,139 +646,317 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>等级解锁</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendListNum</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendNumLimit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackNumLimit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友最大数量</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑名单最大数量</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContactsNumLimit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人最大数量</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友申请数量上限</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendApplyLimit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友申请有效时间(天)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendApplyValidity</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendApplyHello</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友申请招呼</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们已经是好友了，快来和我一起游戏吧！</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>FriendValidation</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友招呼</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>这位少侠根骨清奇灵力非凡，不如加个好友？#吾算得今日大吉，若并肩战斗必将无往不胜！#今天份的快乐是你给的，成为我的伙伴好不？#遇到你真是太好了（づ￣3￣）づ╭❤～#小姐姐，我在妳的心裡迷路了，要不要帶我出來</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatMax</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天最大数量</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>JLRSkill1UlockLv</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>JLRSkill2UlockLv</t>
+  </si>
+  <si>
+    <t>SHLSkillUnlockLv</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHLSkillSlot1UnlockLv</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHLSkillSlot2UnlockLv</t>
+  </si>
+  <si>
+    <t>寄灵人技能1等级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人技能2等级</t>
+  </si>
+  <si>
+    <t>守护灵技能解锁等级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵技能槽1解锁等级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵技能槽2解锁等级</t>
+  </si>
+  <si>
+    <t>CollectShopId</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集商店ID</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExWeaponUnlockLv</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属武器解锁等级</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>MailStatus</t>
+  </si>
+  <si>
+    <t>唯一键</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItem[1].Val</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间 YYYY-MM-DD hh:mm:ss</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间 YYYY-MM-DD hh:mm:ss</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落道具ID</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落道具数量</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件状态</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItem[1].Id</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tring:&lt;&gt;</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-12-5 00:00:00</t>
+  </si>
+  <si>
+    <t>芦花古楼奖励</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型，1定时邮件，2系统邮件</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_mail.txt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>ID</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>等级解锁</t>
+    <t>ID</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>FriendListNum</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>FriendNumLimit</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlackNumLimit</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友最大数量</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑名单最大数量</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContactsNumLimit</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人最大数量</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友申请数量上限</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>FriendApplyLimit</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友申请有效时间(天)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>FriendApplyValidity</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>FriendApplyHello</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友申请招呼</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们已经是好友了，快来和我一起游戏吧！</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>FriendValidation</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>好友招呼</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>这位少侠根骨清奇灵力非凡，不如加个好友？#吾算得今日大吉，若并肩战斗必将无往不胜！#今天份的快乐是你给的，成为我的伙伴好不？#遇到你真是太好了（づ￣3￣）づ╭❤～#小姐姐，我在妳的心裡迷路了，要不要帶我出來</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChatMax</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天最大数量</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>JLRSkill1UlockLv</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>JLRSkill2UlockLv</t>
-  </si>
-  <si>
-    <t>SHLSkillUnlockLv</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHLSkillSlot1UnlockLv</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>SHLSkillSlot2UnlockLv</t>
-  </si>
-  <si>
-    <t>寄灵人技能1等级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人技能2等级</t>
-  </si>
-  <si>
-    <t>守护灵技能解锁等级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵技能槽1解锁等级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵技能槽2解锁等级</t>
-  </si>
-  <si>
-    <t>CollectShopId</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集商店ID</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExWeaponUnlockLv</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>专属武器解锁等级</t>
+    <t>我是一封萝莉</t>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是一封御姐</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是一封正太</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>御姐一只，小哥哥了解下</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝莉一只，小哥哥了解下</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>正太一只，小。。姐姐了解下</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你，在芦花古楼风花雪月4门分别达到第{0}、{1}、{2}、{3}层，依灵域相关法令，将给予如下奖励：</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReedTowerMail</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼每日奖励邮件ID</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你，竞技场排名到达{0}，特发如下奖励以资鼓励</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">恭喜你，今晚竞技场积分达到{0}，特发如下奖励以资鼓励 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场排名奖励</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场积分奖励</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>XLLGoodId</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻令商品ID</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -992,7 +1171,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
@@ -1001,14 +1180,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="12" applyBorder="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
@@ -1310,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1462,14 +1641,14 @@
     </row>
     <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1478,6 +1657,25 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -1494,7 +1692,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1502,7 +1700,7 @@
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="23.25" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
     <col min="8" max="8" width="77.25" customWidth="1"/>
     <col min="9" max="9" width="50.375" customWidth="1"/>
   </cols>
@@ -1973,7 +2171,7 @@
         <v>119</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>124</v>
@@ -1994,10 +2192,10 @@
         <v>120</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -2015,10 +2213,10 @@
         <v>121</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -2036,10 +2234,10 @@
         <v>122</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -2057,10 +2255,10 @@
         <v>123</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -2078,10 +2276,10 @@
         <v>124</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -2094,36 +2292,36 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="49.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>125</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>155</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>126</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="D29" s="3">
         <v>5</v>
@@ -2133,7 +2331,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2141,10 +2339,10 @@
         <v>127</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -2162,10 +2360,10 @@
         <v>128</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -2183,10 +2381,10 @@
         <v>129</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -2204,10 +2402,10 @@
         <v>130</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -2225,10 +2423,10 @@
         <v>131</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -2246,10 +2444,10 @@
         <v>132</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -2267,10 +2465,10 @@
         <v>133</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -2288,10 +2486,10 @@
         <v>134</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -2305,22 +2503,42 @@
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="A38" s="3">
+        <v>135</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>104</v>
+      </c>
       <c r="F38" s="7"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="A39" s="3">
+        <v>136</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1204</v>
+      </c>
       <c r="F39" s="7"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -2390,6 +2608,251 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="73.625" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
+    <col min="8" max="8" width="19.75" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>101</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="3">
+        <v>50</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>102</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" s="3">
+        <v>50</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>103</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" s="3">
+        <v>50</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>104</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>105</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>106</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2475,7 +2938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -2616,7 +3079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>

--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B9F8F7-20AB-4097-AED4-29D56FB900B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="237">
   <si>
     <t>sheet名</t>
   </si>
@@ -261,17 +262,6 @@
   </si>
   <si>
     <t>最大等级</t>
-  </si>
-  <si>
-    <t>初始物品</t>
-  </si>
-  <si>
-    <t>DropItem</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>drop_id:&lt;&gt;</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -437,22 +427,6 @@
     <t>◆  扭蛋玩法说明  ◆</t>
   </si>
   <si>
-    <t>寄灵人出现概率公示
-常服曹焱兵  16.7%
-曹玄亮  16.7%
-战斗夏玲  16.7%
-战斗曹焱兵  16.7%
-黑尔·坎普  16.7%
-红莲缇娜  16.7%
-守护灵出现概率公示
-关羽  16.7%
-许褚  16.7%
-唐流雨  16.7%
-于禁  16.7%
-典韦  16.7%
-塞伯罗斯  16.7%</t>
-  </si>
-  <si>
     <t>◆  获取技能经验  ◆</t>
   </si>
   <si>
@@ -499,16 +473,8 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>global.lua</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>user.lua</t>
     <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>常驻内存</t>
@@ -959,11 +925,114 @@
     <t>巡逻令商品ID</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>Monsters[1].jlr</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters[1].shl</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters[2].jlr</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters[2].shl</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters[3].jlr</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters[3].shl</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&gt;|0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物[1].寄灵人</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物[1].守护灵</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物[2].寄灵人</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物[2].守护灵</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物[3].寄灵人</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物[3].守护灵</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultCritDmg</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认爆伤</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>global.lua</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoxDesc</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星宝箱的默认提示</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到指定星级后可领取</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人出现概率公示
+SSR：2%
+SR：28%
+R：70%
+守护灵出现概率公示
+SSR：2%
+SR：28%
+R：70%</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReduceArenaScore</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场每赛季积分衰减</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1174,7 +1243,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -1199,24 +1268,21 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="超链接 2" xfId="9"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="10"/>
-    <cellStyle name="无效" xfId="11"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="12"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1488,11 +1554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1529,11 +1595,11 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>104</v>
+      <c r="H1" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1541,11 +1607,11 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>52</v>
@@ -1556,7 +1622,9 @@
       <c r="G2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1585,14 +1653,14 @@
         <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="b">
@@ -1607,10 +1675,10 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1622,14 +1690,14 @@
     </row>
     <row r="6" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1641,14 +1709,14 @@
     </row>
     <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1660,14 +1728,14 @@
     </row>
     <row r="8" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1685,14 +1753,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1700,7 +1768,7 @@
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="23.25" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
     <col min="8" max="8" width="77.25" customWidth="1"/>
     <col min="9" max="9" width="50.375" customWidth="1"/>
   </cols>
@@ -1710,7 +1778,7 @@
         <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
@@ -1736,16 +1804,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -1814,10 +1882,10 @@
         <v>102</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -2034,7 +2102,7 @@
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2045,10 +2113,10 @@
         <v>113</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
@@ -2058,7 +2126,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -2066,10 +2134,10 @@
         <v>114</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -2087,10 +2155,10 @@
         <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -2108,10 +2176,10 @@
         <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -2129,10 +2197,10 @@
         <v>117</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -2150,10 +2218,10 @@
         <v>118</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -2171,10 +2239,10 @@
         <v>119</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -2192,10 +2260,10 @@
         <v>120</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -2213,10 +2281,10 @@
         <v>121</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -2234,10 +2302,10 @@
         <v>122</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -2255,10 +2323,10 @@
         <v>123</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -2276,10 +2344,10 @@
         <v>124</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -2292,22 +2360,22 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>125</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2318,10 +2386,10 @@
         <v>126</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D29" s="3">
         <v>5</v>
@@ -2331,7 +2399,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2339,10 +2407,10 @@
         <v>127</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -2360,10 +2428,10 @@
         <v>128</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -2381,16 +2449,16 @@
         <v>129</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -2402,10 +2470,10 @@
         <v>130</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -2423,16 +2491,16 @@
         <v>131</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
       </c>
       <c r="E34" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -2444,16 +2512,16 @@
         <v>132</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
       </c>
       <c r="E35" s="3">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -2465,10 +2533,10 @@
         <v>133</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -2486,10 +2554,10 @@
         <v>134</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -2507,10 +2575,10 @@
         <v>135</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -2528,10 +2596,10 @@
         <v>136</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -2545,33 +2613,63 @@
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="A40" s="3">
+        <v>137</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" s="3">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1.5</v>
+      </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="3">
+        <v>138</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2</v>
+      </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3" t="s">
+        <v>232</v>
+      </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="A42" s="3">
+        <v>140</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>150</v>
+      </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -2608,11 +2706,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2629,89 +2727,89 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -2722,17 +2820,17 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H4" s="3">
         <v>50</v>
@@ -2747,17 +2845,17 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H5" s="3">
         <v>50</v>
@@ -2772,17 +2870,17 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H6" s="3">
         <v>50</v>
@@ -2799,10 +2897,10 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2818,10 +2916,10 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2837,10 +2935,10 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2853,20 +2951,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>57</v>
@@ -2878,27 +2983,57 @@
         <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>60</v>
       </c>
@@ -2912,15 +3047,30 @@
         <v>63</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -2929,21 +3079,37 @@
         <v>60</v>
       </c>
       <c r="E4" s="3">
-        <v>1001</v>
+        <v>1101007</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1102002</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1101002</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1102003</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1101003</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1102013</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2954,35 +3120,35 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="49.5" x14ac:dyDescent="0.2">
@@ -2990,10 +3156,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.2">
@@ -3001,21 +3167,21 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="231" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="132" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>89</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.2">
@@ -3023,10 +3189,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.2">
@@ -3034,10 +3200,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3045,10 +3211,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3056,10 +3222,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3067,10 +3233,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3080,7 +3246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3095,36 +3261,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3132,16 +3298,16 @@
         <v>60</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3152,10 +3318,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>

--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B9F8F7-20AB-4097-AED4-29D56FB900B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D136536-4529-4426-87DE-9AC1014A47E8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,15 @@
     <sheet name="帮助表" sheetId="28" r:id="rId5"/>
     <sheet name="等级解锁" sheetId="29" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -63,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="259">
   <si>
     <t>sheet名</t>
   </si>
@@ -508,9 +516,6 @@
     <t>品质颜色</t>
   </si>
   <si>
-    <t>EDEFC9,8BEC58,58ECDD,BB1ECB,F89D04</t>
-  </si>
-  <si>
     <t>MaxCoinExchangeTimes</t>
   </si>
   <si>
@@ -950,10 +955,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>int:e&gt;|0</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物[1].寄灵人</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1026,6 +1027,102 @@
   </si>
   <si>
     <t>竞技场每赛季积分衰减</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZuanShiShangDian</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石商店的shopTagId</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PveRoundLimit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PvpRoundLimit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVE战斗回合限制</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP战斗回合限制</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaiQianFac</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>派遣巡逻系数</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_id:e&gt;|0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_id:e&gt;|0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_id:e&gt;|0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_id:e&gt;|0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_id:e&gt;|0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>@0</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹玄亮</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗夏玲</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>EDEFC9,8BEC58,58ECDD,BB1ECB,F89D04</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3,0.4</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>总伤害位置</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TatalDemagePos</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始回合获得水晶数量</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitCrystalAmount</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitCrystalAmountMonster</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始回合获得水晶数量（怪物）</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1243,7 +1340,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -1268,6 +1365,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1607,11 +1705,11 @@
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>52</v>
@@ -1693,7 +1791,7 @@
         <v>94</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -1709,14 +1807,14 @@
     </row>
     <row r="7" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -1728,14 +1826,14 @@
     </row>
     <row r="8" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1754,19 +1852,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="29.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="6" max="6" width="22.625" customWidth="1"/>
     <col min="8" max="8" width="77.25" customWidth="1"/>
@@ -1778,7 +1876,7 @@
         <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>51</v>
@@ -1804,7 +1902,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>100</v>
@@ -2080,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2126,7 +2224,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -2134,10 +2232,10 @@
         <v>114</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -2155,10 +2253,10 @@
         <v>115</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -2176,10 +2274,10 @@
         <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -2197,10 +2295,10 @@
         <v>117</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -2218,10 +2316,10 @@
         <v>118</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -2239,10 +2337,10 @@
         <v>119</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -2260,10 +2358,10 @@
         <v>120</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -2281,10 +2379,10 @@
         <v>121</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -2302,10 +2400,10 @@
         <v>122</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>142</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -2323,10 +2421,10 @@
         <v>123</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -2344,10 +2442,10 @@
         <v>124</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -2365,17 +2463,17 @@
         <v>125</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="D28" s="3">
         <v>2</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -2386,10 +2484,10 @@
         <v>126</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>151</v>
       </c>
       <c r="D29" s="3">
         <v>5</v>
@@ -2399,7 +2497,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2407,10 +2505,10 @@
         <v>127</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -2428,10 +2526,10 @@
         <v>128</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -2449,10 +2547,10 @@
         <v>129</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -2470,10 +2568,10 @@
         <v>130</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D33" s="3">
         <v>1</v>
@@ -2491,10 +2589,10 @@
         <v>131</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -2512,10 +2610,10 @@
         <v>132</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -2533,10 +2631,10 @@
         <v>133</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -2554,10 +2652,10 @@
         <v>134</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -2575,10 +2673,10 @@
         <v>135</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -2596,10 +2694,10 @@
         <v>136</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -2617,10 +2715,10 @@
         <v>137</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -2638,17 +2736,17 @@
         <v>138</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D41" s="3">
         <v>2</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -2656,7 +2754,7 @@
     </row>
     <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>235</v>
@@ -2668,34 +2766,159 @@
         <v>1</v>
       </c>
       <c r="E42" s="3">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="H42" s="8"/>
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="A43" s="3">
+        <v>140</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>150</v>
+      </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="8"/>
+      <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="A44" s="3">
+        <v>141</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>10</v>
+      </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>142</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>10</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>143</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>144</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D47" s="3">
+        <v>4</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>145</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>4</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>146</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -2727,89 +2950,89 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>185</v>
-      </c>
       <c r="I2" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -2820,17 +3043,17 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H4" s="3">
         <v>50</v>
@@ -2845,17 +3068,17 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H5" s="3">
         <v>50</v>
@@ -2870,17 +3093,17 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="H6" s="3">
         <v>50</v>
@@ -2897,10 +3120,10 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2916,10 +3139,10 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2935,10 +3158,10 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2955,7 +3178,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2983,22 +3206,22 @@
         <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3014,23 +3237,23 @@
       <c r="D2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J2" t="s">
-        <v>219</v>
+      <c r="E2" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -3047,22 +3270,22 @@
         <v>63</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -3078,23 +3301,23 @@
       <c r="D4" s="3">
         <v>60</v>
       </c>
-      <c r="E4" s="3">
-        <v>1101007</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1102002</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1101002</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1102003</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1101003</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1102013</v>
+      <c r="E4" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3181,7 +3404,7 @@
         <v>85</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.2">
@@ -3233,10 +3456,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3264,33 +3487,33 @@
         <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3298,16 +3521,16 @@
         <v>60</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3318,10 +3541,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>

--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
   <si>
     <t>sheet名</t>
   </si>
@@ -640,26 +640,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:&lt;</t>
-    </r>
+    <t>string:&lt;</t>
   </si>
   <si>
     <t>◆  竞技场说明  ◆</t>
@@ -733,6 +714,20 @@
     <t>指定角色组合达到一定条件可通灵召唤更强大的角色</t>
   </si>
   <si>
+    <t>◆  教学关卡  ◆</t>
+  </si>
+  <si>
+    <t>每关教你一个小套路，助你早日成为强力镇魂将</t>
+  </si>
+  <si>
+    <t>◆  派遣巡逻  ◆</t>
+  </si>
+  <si>
+    <t>可以派遣1~6名任意角色在已开启的巡逻点巡逻
+巡逻不论是否在线，均按时长给予奖励，是升级的最佳手段
+每天有最多8小时的收益限制，巡逻超出时限后，当天内不再获得奖励</t>
+  </si>
+  <si>
     <t>CardLevel</t>
   </si>
   <si>
@@ -769,11 +764,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -791,21 +786,59 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -822,38 +855,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -873,26 +887,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -903,27 +902,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -945,17 +934,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <strike/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -967,8 +956,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <strike/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -982,7 +970,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -997,7 +985,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1009,7 +1033,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,19 +1057,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,13 +1105,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,103 +1135,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,19 +1165,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,13 +1177,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,17 +1218,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1258,6 +1229,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1295,6 +1290,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1312,35 +1318,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1350,200 +1332,203 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="1" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="55">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="60" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="33" applyNumberFormat="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="33" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1880,7 +1865,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -2040,11 +2025,11 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2120,28 +2105,28 @@
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2162,7 +2147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="5" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A5" s="4">
         <v>102</v>
       </c>
@@ -2183,7 +2168,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="6" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A6" s="4">
         <v>103</v>
       </c>
@@ -2204,7 +2189,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="7" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A7" s="4">
         <v>104</v>
       </c>
@@ -2225,7 +2210,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="8" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A8" s="4">
         <v>105</v>
       </c>
@@ -2246,7 +2231,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="9" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A9" s="4">
         <v>106</v>
       </c>
@@ -2267,7 +2252,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="10" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A10" s="4">
         <v>107</v>
       </c>
@@ -2288,7 +2273,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="11" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A11" s="4">
         <v>108</v>
       </c>
@@ -2309,7 +2294,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="12" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A12" s="4">
         <v>109</v>
       </c>
@@ -2330,7 +2315,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" s="5" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="13" s="6" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A13" s="4">
         <v>110</v>
       </c>
@@ -2351,7 +2336,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="14" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A14" s="4">
         <v>111</v>
       </c>
@@ -2372,7 +2357,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="15" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A15" s="4">
         <v>112</v>
       </c>
@@ -2386,14 +2371,14 @@
         <v>2</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="11" t="s">
         <v>70</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" s="5" customFormat="1" ht="19.5" customHeight="1" spans="1:9">
+    <row r="16" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:9">
       <c r="A16" s="4">
         <v>113</v>
       </c>
@@ -2493,10 +2478,10 @@
       <c r="E20" s="4">
         <v>100</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" ht="16.5" spans="1:9">
       <c r="A21" s="4">
@@ -2514,10 +2499,10 @@
       <c r="E21" s="4">
         <v>3</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
     </row>
     <row r="22" ht="16.5" spans="1:9">
       <c r="A22" s="4">
@@ -2535,10 +2520,10 @@
       <c r="E22" s="4">
         <v>6</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" ht="16.5" spans="1:9">
       <c r="A23" s="4">
@@ -2556,10 +2541,10 @@
       <c r="E23" s="4">
         <v>30</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" ht="16.5" spans="1:9">
       <c r="A24" s="4">
@@ -2724,10 +2709,10 @@
       <c r="E31" s="4">
         <v>1</v>
       </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" ht="16.5" spans="1:9">
       <c r="A32" s="4">
@@ -2745,10 +2730,10 @@
       <c r="E32" s="4">
         <v>1</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" ht="16.5" spans="1:9">
       <c r="A33" s="4">
@@ -2766,10 +2751,10 @@
       <c r="E33" s="4">
         <v>1</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" ht="16.5" spans="1:9">
       <c r="A34" s="4">
@@ -2787,10 +2772,10 @@
       <c r="E34" s="4">
         <v>1</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" ht="16.5" spans="1:9">
       <c r="A35" s="4">
@@ -2871,7 +2856,7 @@
       <c r="E38" s="4">
         <v>104</v>
       </c>
-      <c r="F38" s="8"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2892,7 +2877,7 @@
       <c r="E39" s="4">
         <v>1204</v>
       </c>
-      <c r="F39" s="8"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -2953,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -3057,10 +3042,10 @@
       <c r="D47" s="4">
         <v>4</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="9"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="10"/>
       <c r="I47" s="4" t="s">
         <v>139</v>
       </c>
@@ -3069,22 +3054,22 @@
       <c r="A48" s="4">
         <v>145</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D48" s="7">
-        <v>1</v>
-      </c>
-      <c r="E48" s="7">
+      <c r="D48" s="8">
+        <v>1</v>
+      </c>
+      <c r="E48" s="8">
         <v>4</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
     </row>
     <row r="49" ht="33" spans="1:9">
       <c r="A49" s="4">
@@ -3093,7 +3078,7 @@
       <c r="B49" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="10" t="s">
         <v>143</v>
       </c>
       <c r="D49" s="4">
@@ -3102,10 +3087,10 @@
       <c r="E49" s="4">
         <v>6</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
     </row>
     <row r="50" ht="16.5" spans="1:9">
       <c r="A50" s="4">
@@ -3385,7 +3370,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3527,6 +3512,28 @@
       </c>
       <c r="C12" s="4" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:3">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" ht="49.5" spans="1:3">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3557,16 +3564,16 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3577,10 +3584,10 @@
         <v>181</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>181</v>
@@ -3591,16 +3598,16 @@
         <v>157</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:5">
@@ -3611,10 +3618,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>

--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -1,35 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6377758B-B966-4C71-A466-4DA286C34D50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="全局表" sheetId="26" r:id="rId2"/>
-    <sheet name="邮件" sheetId="30" r:id="rId3"/>
-    <sheet name="帮助表" sheetId="28" r:id="rId4"/>
-    <sheet name="等级解锁" sheetId="29" r:id="rId5"/>
+    <sheet name="文本表" sheetId="31" r:id="rId3"/>
+    <sheet name="邮件" sheetId="30" r:id="rId4"/>
+    <sheet name="帮助表" sheetId="28" r:id="rId5"/>
+    <sheet name="等级解锁" sheetId="29" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -38,6 +46,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -54,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="371">
   <si>
     <t>sheet名</t>
   </si>
@@ -119,6 +128,9 @@
     <t>time_mail.txt</t>
   </si>
   <si>
+    <t>文本表</t>
+  </si>
+  <si>
     <t>Key</t>
   </si>
   <si>
@@ -467,12 +479,6 @@
     <t>派遣巡逻系数</t>
   </si>
   <si>
-    <t>TatalDemagePos</t>
-  </si>
-  <si>
-    <t>总伤害位置</t>
-  </si>
-  <si>
     <t>0.5,0.7</t>
   </si>
   <si>
@@ -494,28 +500,7 @@
     <t>经验的道具ID</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>StartTime</t>
-  </si>
-  <si>
-    <t>EndTime</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>DropItem[1].Id</t>
-  </si>
-  <si>
-    <t>DropItem[1].Val</t>
-  </si>
-  <si>
-    <t>MailStatus</t>
+    <t>Words</t>
   </si>
   <si>
     <r>
@@ -523,6 +508,472 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nt:&lt;&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+  </si>
+  <si>
+    <t>备注，策划一定要写清楚，这个文本在哪用的，不然日后很难维护</t>
+  </si>
+  <si>
+    <t>文本</t>
+  </si>
+  <si>
+    <t>派遣巡逻详情界面快速巡逻提示</t>
+  </si>
+  <si>
+    <t>使用派遣令立即获得巡逻%s分钟奖励</t>
+  </si>
+  <si>
+    <t>派遣菜单界面右侧普通条件显示</t>
+  </si>
+  <si>
+    <t>通关普通&lt;color=#FEC200&gt;%s&lt;/color&gt;-%s开启</t>
+  </si>
+  <si>
+    <t>派遣菜单界面右侧困难条件显示</t>
+  </si>
+  <si>
+    <t>通关困难&lt;color=#FEC200&gt;%s&lt;/color&gt;-%s开启</t>
+  </si>
+  <si>
+    <t>公告界面活动按钮</t>
+  </si>
+  <si>
+    <t>活动</t>
+  </si>
+  <si>
+    <t>公告界面公告按钮</t>
+  </si>
+  <si>
+    <t>公告</t>
+  </si>
+  <si>
+    <t>卡牌详情进阶时等级提示</t>
+  </si>
+  <si>
+    <t>等级上限提升至%s级</t>
+  </si>
+  <si>
+    <t>商店界面</t>
+  </si>
+  <si>
+    <t>本日</t>
+  </si>
+  <si>
+    <t>本周</t>
+  </si>
+  <si>
+    <t>本月</t>
+  </si>
+  <si>
+    <t>商店界面日期购买提示</t>
+  </si>
+  <si>
+    <t>%s还可购买&lt;color=#f9be00&gt;%s&lt;/color&gt;次</t>
+  </si>
+  <si>
+    <t>商店折扣</t>
+  </si>
+  <si>
+    <t>%.1f折</t>
+  </si>
+  <si>
+    <t>派遣巡逻队伍数量显示</t>
+  </si>
+  <si>
+    <t>派遣队伍的数量：&lt;color=#FEC200&gt;%s&lt;/color&gt;/%s</t>
+  </si>
+  <si>
+    <t>邮件系统全部</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>邮件系统系统</t>
+  </si>
+  <si>
+    <t>系统</t>
+  </si>
+  <si>
+    <t>邮件系统战报</t>
+  </si>
+  <si>
+    <t>战报</t>
+  </si>
+  <si>
+    <t>邮件删除按钮</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>邮件领取按钮</t>
+  </si>
+  <si>
+    <t>领取</t>
+  </si>
+  <si>
+    <t>备战界面守护灵页签</t>
+  </si>
+  <si>
+    <t>守护灵</t>
+  </si>
+  <si>
+    <t>备战界面寄灵人页签</t>
+  </si>
+  <si>
+    <t>寄灵人</t>
+  </si>
+  <si>
+    <t>派遣巡逻派遣令不足提示</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;快速巡逻失败，消耗&lt;color=#00ECFF&gt;【牧守令】&lt;/color&gt;不足&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>派遣巡逻清空队伍提示</t>
+  </si>
+  <si>
+    <t>没有队伍，无法清空</t>
+  </si>
+  <si>
+    <t>派遣巡逻队伍提示</t>
+  </si>
+  <si>
+    <t>没有队伍，无法巡逻</t>
+  </si>
+  <si>
+    <t>派遣巡逻选择英雄提示</t>
+  </si>
+  <si>
+    <t>英雄选择已满</t>
+  </si>
+  <si>
+    <t>派遣巡逻队伍满提示</t>
+  </si>
+  <si>
+    <t>派遣队伍已满</t>
+  </si>
+  <si>
+    <t>派遣巡逻中间关卡点条件提示</t>
+  </si>
+  <si>
+    <t>需通关普通&lt;color=#FEC200&gt;%s&lt;/color&gt;-%s开启巡逻点后再试</t>
+  </si>
+  <si>
+    <t>需通关困难&lt;color=#FEC200&gt;%s&lt;/color&gt;-%s开启巡逻点后再试</t>
+  </si>
+  <si>
+    <t>通用材料不足提示</t>
+  </si>
+  <si>
+    <t>材料不足</t>
+  </si>
+  <si>
+    <t>通用经验不足提示</t>
+  </si>
+  <si>
+    <t>经验不足</t>
+  </si>
+  <si>
+    <t>开启挂机功能提示</t>
+  </si>
+  <si>
+    <t>通关剧情&lt;color=#FEC200&gt;%s&lt;/color&gt;-%s开启</t>
+  </si>
+  <si>
+    <t>快速巡逻完成提示</t>
+  </si>
+  <si>
+    <t>快速巡逻完成，消耗&lt;color=green&gt;【派遣令*1】&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>无邮件信息提示</t>
+  </si>
+  <si>
+    <t>暂无邮件可操作~</t>
+  </si>
+  <si>
+    <t>没有领取邮件提示</t>
+  </si>
+  <si>
+    <t>无邮件可领取</t>
+  </si>
+  <si>
+    <t>布阵无卡牌提示</t>
+  </si>
+  <si>
+    <t>阵容上最少要布置一张卡牌</t>
+  </si>
+  <si>
+    <t>布阵守护灵上阵提示</t>
+  </si>
+  <si>
+    <t>守护灵无法单独上阵</t>
+  </si>
+  <si>
+    <t>技能无法释放提示</t>
+  </si>
+  <si>
+    <t>行动次数已达上限</t>
+  </si>
+  <si>
+    <t>寄灵人已阵亡</t>
+  </si>
+  <si>
+    <t>异常状态，无法使用</t>
+  </si>
+  <si>
+    <t>被动技能，无法使用</t>
+  </si>
+  <si>
+    <t>冷却时间剩余%s回合</t>
+  </si>
+  <si>
+    <t>水晶不足，无法释放</t>
+  </si>
+  <si>
+    <t>指令不可撤销</t>
+  </si>
+  <si>
+    <t>未携带守护灵，无法召唤</t>
+  </si>
+  <si>
+    <t>技能未解锁</t>
+  </si>
+  <si>
+    <t>请安装武灵技</t>
+  </si>
+  <si>
+    <t>通用功能未开放提示</t>
+  </si>
+  <si>
+    <t>功能暂未开放！</t>
+  </si>
+  <si>
+    <t>通用使用弹窗上限提示</t>
+  </si>
+  <si>
+    <t>使用数量超限！</t>
+  </si>
+  <si>
+    <t>卡牌详情升星页签提示</t>
+  </si>
+  <si>
+    <t>该角色不能升星</t>
+  </si>
+  <si>
+    <t>卡牌详情专属武器页签提示</t>
+  </si>
+  <si>
+    <t>该角色没有专属武器</t>
+  </si>
+  <si>
+    <t>卡牌详情专属未知页签提示</t>
+  </si>
+  <si>
+    <t>点击--</t>
+  </si>
+  <si>
+    <t>通用点击按钮频繁</t>
+  </si>
+  <si>
+    <t>操作频繁</t>
+  </si>
+  <si>
+    <t>体力不足</t>
+  </si>
+  <si>
+    <t>登陆注册界面提示</t>
+  </si>
+  <si>
+    <t>请按照规范输入信息！</t>
+  </si>
+  <si>
+    <t>账号输入太短或太长！</t>
+  </si>
+  <si>
+    <t>密码输入太短或太长！</t>
+  </si>
+  <si>
+    <t>两次输入的密码不一致！</t>
+  </si>
+  <si>
+    <t>服务器异常提示</t>
+  </si>
+  <si>
+    <t>服务器暂未开启！</t>
+  </si>
+  <si>
+    <t>该用户账号异常！</t>
+  </si>
+  <si>
+    <t>该用户不在白名单内！</t>
+  </si>
+  <si>
+    <t>技能兑换提示</t>
+  </si>
+  <si>
+    <t>&lt;color=#B33A3A&gt;货币不足！&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>该用户密码不对！</t>
+  </si>
+  <si>
+    <t>该用户已存在！</t>
+  </si>
+  <si>
+    <t>激活码不存在！</t>
+  </si>
+  <si>
+    <t>激活码已使用！</t>
+  </si>
+  <si>
+    <t>关卡详情界面</t>
+  </si>
+  <si>
+    <t>普通关卡不能复刷</t>
+  </si>
+  <si>
+    <t>个人boss界面提示</t>
+  </si>
+  <si>
+    <t>挑战券不足</t>
+  </si>
+  <si>
+    <t>派遣巡逻领奖提示</t>
+  </si>
+  <si>
+    <t>暂无可领取奖励</t>
+  </si>
+  <si>
+    <t>技能兑换信息界面提示</t>
+  </si>
+  <si>
+    <t>&lt;color=#55FF00&gt;兑换成功，新技能已放入技能背包中&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>神器界面提示</t>
+  </si>
+  <si>
+    <t>神器最大等级低于碎片最小等级~~</t>
+  </si>
+  <si>
+    <t>通用等级上限提示</t>
+  </si>
+  <si>
+    <t>等级已达上限</t>
+  </si>
+  <si>
+    <t>派遣总览界面提示</t>
+  </si>
+  <si>
+    <t>没有派遣队伍</t>
+  </si>
+  <si>
+    <t>好友系统按钮组提示</t>
+  </si>
+  <si>
+    <t>请先移除黑名单</t>
+  </si>
+  <si>
+    <t>好友系统删除好友提示</t>
+  </si>
+  <si>
+    <t>是否与%s解除好友关系？</t>
+  </si>
+  <si>
+    <t>该难度未开启</t>
+  </si>
+  <si>
+    <t>教学关卡提示</t>
+  </si>
+  <si>
+    <t>通关上一关开启</t>
+  </si>
+  <si>
+    <t>战斗退出异常提示</t>
+  </si>
+  <si>
+    <t>结算回合，无法退出</t>
+  </si>
+  <si>
+    <t>聊天提示</t>
+  </si>
+  <si>
+    <t>最大字数不超过50</t>
+  </si>
+  <si>
+    <t>聊天内容不能为空</t>
+  </si>
+  <si>
+    <t>竞技场提示</t>
+  </si>
+  <si>
+    <t>挑战券不足，请购买后在进行挑战</t>
+  </si>
+  <si>
+    <t>您当前积分已经达到黄金段位，请退出重进</t>
+  </si>
+  <si>
+    <t>通用货币不足提示</t>
+  </si>
+  <si>
+    <t>钻石数量不足</t>
+  </si>
+  <si>
+    <t>未上榜</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>DropItem[1].Id</t>
+  </si>
+  <si>
+    <t>DropItem[1].Val</t>
+  </si>
+  <si>
+    <t>MailStatus</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -533,6 +984,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -623,6 +1075,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -633,14 +1086,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>:&lt;&gt;</t>
     </r>
-  </si>
-  <si>
-    <t>string:&lt;</t>
   </si>
   <si>
     <t>◆  竞技场说明  ◆</t>
@@ -757,18 +1208,80 @@
   <si>
     <t>1#2</t>
   </si>
+  <si>
+    <t>我方总伤害位置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方总伤害位置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5,0.3</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵力已经达到上限</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>征兵</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>征兵Item</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>充能中</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>words.lua</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确认开始征募</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>无可征兵队伍</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>无可停止队伍</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TatalDemagePosW</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TatalDemagePosD</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,162 +1294,37 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -944,6 +1332,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -952,25 +1349,40 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -985,67 +1397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,144 +1409,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1218,104 +1450,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1326,279 +1460,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="60" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="12" applyBorder="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="33" applyNumberFormat="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="13">
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="Grid" xfId="33"/>
-    <cellStyle name="汇总" xfId="34" builtinId="25"/>
-    <cellStyle name="好" xfId="35" builtinId="26"/>
-    <cellStyle name="适中" xfId="36" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="大标题" xfId="48"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="Normal" xfId="55"/>
-    <cellStyle name="常规 2" xfId="56"/>
-    <cellStyle name="超链接 2" xfId="57"/>
-    <cellStyle name="文本" xfId="58"/>
-    <cellStyle name="无效" xfId="59"/>
-    <cellStyle name="中文标题" xfId="60"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1856,19 +1816,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1880,7 +1840,7 @@
     <col min="9" max="9" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:9">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1909,7 +1869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1934,7 +1894,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" ht="57.75" customHeight="1" spans="1:9">
+    <row r="3" spans="1:9" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1955,7 +1915,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" ht="42.75" customHeight="1" spans="1:9">
+    <row r="4" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1974,7 +1934,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" ht="37.5" customHeight="1" spans="1:9">
+    <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1993,7 +1953,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" ht="34.5" customHeight="1" spans="1:9">
+    <row r="6" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -2012,27 +1972,50 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
+    <row r="7" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="29.625" customWidth="1"/>
@@ -2043,102 +2026,102 @@
     <col min="9" max="9" width="50.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:9">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" ht="15" spans="1:9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="16.5" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -2147,15 +2130,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="5" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -2168,15 +2151,15 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="6" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2189,15 +2172,15 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="7" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -2210,15 +2193,15 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="8" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -2231,15 +2214,15 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="9" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -2252,15 +2235,15 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="10" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -2273,15 +2256,15 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="11" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -2294,15 +2277,15 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="12" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>109</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -2315,15 +2298,15 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" s="6" customFormat="1" ht="18" customHeight="1" spans="1:9">
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>110</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -2336,15 +2319,15 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="14" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>111</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -2357,36 +2340,36 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="15" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>112</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" s="6" customFormat="1" ht="19.5" customHeight="1" spans="1:9">
+    <row r="16" spans="1:9" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>113</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" s="4">
         <v>5</v>
@@ -2396,18 +2379,18 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" spans="1:9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>114</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -2420,15 +2403,15 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" ht="16.5" spans="1:9">
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -2441,15 +2424,15 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" ht="16.5" customHeight="1" spans="1:9">
+    <row r="19" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>116</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -2462,15 +2445,15 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" ht="16.5" spans="1:9">
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>117</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -2483,15 +2466,15 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" ht="16.5" spans="1:9">
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>118</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -2504,15 +2487,15 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
     </row>
-    <row r="22" ht="16.5" spans="1:9">
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>119</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -2525,15 +2508,15 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" ht="16.5" spans="1:9">
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>120</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -2546,15 +2529,15 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" ht="16.5" spans="1:9">
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>121</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -2567,15 +2550,15 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" ht="16.5" spans="1:9">
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>122</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -2588,15 +2571,15 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" ht="16.5" spans="1:9">
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>123</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -2609,15 +2592,15 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" ht="16.5" spans="1:9">
+    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>124</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -2630,36 +2613,36 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" ht="23.25" customHeight="1" spans="1:9">
+    <row r="28" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>125</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D28" s="4">
         <v>2</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" ht="24" customHeight="1" spans="1:9">
+    <row r="29" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>126</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D29" s="4">
         <v>5</v>
@@ -2669,18 +2652,18 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" ht="25.5" customHeight="1" spans="1:9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>127</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -2693,15 +2676,15 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" ht="16.5" spans="1:9">
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>128</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -2714,15 +2697,15 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" ht="16.5" spans="1:9">
+    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>129</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -2735,15 +2718,15 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" ht="16.5" spans="1:9">
+    <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>130</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -2756,15 +2739,15 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" ht="16.5" spans="1:9">
+    <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>131</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -2777,15 +2760,15 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" ht="16.5" spans="1:9">
+    <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>132</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -2798,15 +2781,15 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" ht="16.5" spans="1:9">
+    <row r="36" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>133</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -2819,15 +2802,15 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" ht="16.5" spans="1:9">
+    <row r="37" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>134</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -2840,15 +2823,15 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" ht="16.5" spans="1:9">
+    <row r="38" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>135</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -2861,36 +2844,36 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" ht="16.5" spans="1:9">
+    <row r="39" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>136</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
       </c>
       <c r="E39" s="4">
-        <v>1204</v>
+        <v>1103</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" ht="16.5" spans="1:9">
+    <row r="40" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>137</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -2903,36 +2886,36 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" ht="16.5" spans="1:9">
+    <row r="41" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>138</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="4">
         <v>2</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" ht="16.5" spans="1:9">
+    <row r="42" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>139</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -2945,15 +2928,15 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" ht="16.5" spans="1:9">
+    <row r="43" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>140</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -2966,15 +2949,15 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" ht="16.5" spans="1:9">
+    <row r="44" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>141</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -2987,15 +2970,15 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" ht="16.5" spans="1:9">
+    <row r="45" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>142</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -3008,15 +2991,15 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" ht="16.5" spans="1:9">
+    <row r="46" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>143</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -3029,15 +3012,15 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" ht="16.5" spans="1:9">
+    <row r="47" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>144</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>137</v>
+        <v>369</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>138</v>
+        <v>354</v>
       </c>
       <c r="D47" s="4">
         <v>4</v>
@@ -3047,18 +3030,18 @@
       <c r="G47" s="8"/>
       <c r="H47" s="10"/>
       <c r="I47" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" ht="16.5" spans="1:9">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>145</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="D48" s="8">
         <v>1</v>
@@ -3071,15 +3054,15 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" ht="33" spans="1:9">
+    <row r="49" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>146</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -3092,15 +3075,15 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" ht="16.5" spans="1:9">
+    <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>147</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -3113,24 +3096,1099 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
+    <row r="51" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>148</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D51" s="4">
+        <v>4</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C94"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
+    <col min="3" max="3" width="50.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>100001</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>100002</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>100003</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>100004</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>100005</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>100006</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>100007</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>100008</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>100009</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>100010</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>100011</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>100012</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>100013</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>100014</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>100015</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>100016</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>100017</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>100018</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>100019</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="33" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>100020</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>100021</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>100022</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>100023</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>100024</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="33" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>100025</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="33" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>100026</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>100027</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>100028</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>100029</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="33" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>100030</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>100031</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>100032</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>100033</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>100034</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>100035</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>100036</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>100037</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>100038</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>100039</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>100040</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>100041</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>100042</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>100043</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>100044</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>100045</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>100046</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>100047</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>100048</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>100049</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>100050</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>100051</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>100052</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>100053</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>100054</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>100055</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>100056</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>100057</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>100058</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>100059</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>100060</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>100061</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>100062</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>100063</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>100064</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>100065</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>100066</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>100067</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="33" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>100068</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>100069</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>100070</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>100071</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>100072</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>100073</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>100074</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>100075</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>100076</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>100077</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>100078</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>100079</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>100080</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>100081</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>100082</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>100083</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="12">
+        <v>100084</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="12">
+        <v>100085</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="12">
+        <v>100086</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="12">
+        <v>100087</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="12">
+        <v>100088</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="12">
+        <v>100089</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="12">
+        <v>100090</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="12">
+        <v>100091</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="26.75" customWidth="1"/>
@@ -3142,94 +4200,94 @@
     <col min="9" max="9" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:9">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>286</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>287</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>288</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>289</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>290</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>291</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>292</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>154</v>
+        <v>294</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>156</v>
+        <v>296</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" ht="29.25" customHeight="1" spans="1:9">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>157</v>
+        <v>297</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>158</v>
+        <v>298</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>161</v>
+        <v>301</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>162</v>
+        <v>302</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>163</v>
+        <v>303</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>164</v>
+        <v>304</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:9">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>101</v>
       </c>
@@ -3237,24 +4295,24 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>167</v>
+        <v>307</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>168</v>
+        <v>308</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>169</v>
+        <v>309</v>
       </c>
       <c r="H4" s="4">
         <v>50</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>102</v>
       </c>
@@ -3262,24 +4320,24 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>170</v>
+        <v>310</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>171</v>
+        <v>311</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>169</v>
+        <v>309</v>
       </c>
       <c r="H5" s="4">
         <v>50</v>
       </c>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>103</v>
       </c>
@@ -3287,24 +4345,24 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>172</v>
+        <v>312</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>173</v>
+        <v>313</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>169</v>
+        <v>309</v>
       </c>
       <c r="H6" s="4">
         <v>50</v>
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" ht="51.75" customHeight="1" spans="1:9">
+    <row r="7" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>104</v>
       </c>
@@ -3314,16 +4372,16 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>175</v>
+        <v>315</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" ht="21.75" customHeight="1" spans="1:9">
+    <row r="8" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>105</v>
       </c>
@@ -3333,16 +4391,16 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>176</v>
+        <v>316</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>177</v>
+        <v>317</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" ht="21" customHeight="1" spans="1:9">
+    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>106</v>
       </c>
@@ -3352,206 +4410,200 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>178</v>
+        <v>318</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.375" customWidth="1"/>
     <col min="3" max="3" width="82.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:3">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>289</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>181</v>
+        <v>321</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" ht="15" spans="1:3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>161</v>
+        <v>301</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" ht="49.5" spans="1:3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>183</v>
+        <v>322</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" ht="49.5" spans="1:3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>185</v>
+        <v>324</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" ht="132" spans="1:3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="132" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>187</v>
+        <v>326</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" ht="33" spans="1:3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>189</v>
+        <v>328</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" ht="33" spans="1:3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>191</v>
+        <v>330</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" ht="71.25" customHeight="1" spans="1:3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>193</v>
+        <v>332</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" ht="53.25" customHeight="1" spans="1:3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>195</v>
+        <v>334</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" ht="53.25" customHeight="1" spans="1:3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>197</v>
+        <v>336</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>199</v>
+        <v>338</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>201</v>
+        <v>340</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" ht="49.5" spans="1:3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>203</v>
+        <v>342</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>204</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -3559,58 +4611,58 @@
     <col min="5" max="5" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>344</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>206</v>
+        <v>345</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>207</v>
+        <v>346</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>181</v>
+        <v>321</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
+        <v>321</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>209</v>
+        <v>348</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>209</v>
+        <v>348</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" ht="23.25" customHeight="1" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>157</v>
+        <v>297</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>210</v>
+        <v>349</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>211</v>
+        <v>350</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>212</v>
+        <v>351</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -3618,16 +4670,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>214</v>
+        <v>353</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>214</v>
+        <v>353</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -3644,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -3661,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -3678,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -3695,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -3712,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -3729,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -3746,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -3763,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -3780,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -3797,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -3814,7 +4866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -3831,7 +4883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -3848,7 +4900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -3865,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -3882,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -3899,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:5">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -3916,7 +4968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:5">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -3933,7 +4985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:5">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -3950,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:5">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -3967,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:5">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -3984,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -4001,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:5">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>24</v>
       </c>
@@ -4018,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:5">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -4035,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:5">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -4052,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:5">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -4069,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:5">
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -4086,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:5">
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -4103,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:5">
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -4120,7 +5172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:5">
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -4137,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:5">
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -4154,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:5">
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -4171,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:5">
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -4188,7 +5240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:5">
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -4205,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:5">
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -4222,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:5">
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -4239,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:5">
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -4256,7 +5308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:5">
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>39</v>
       </c>
@@ -4273,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:5">
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>40</v>
       </c>
@@ -4290,7 +5342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:5">
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -4307,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:5">
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>42</v>
       </c>
@@ -4324,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:5">
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>43</v>
       </c>
@@ -4341,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:5">
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>44</v>
       </c>
@@ -4358,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:5">
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>45</v>
       </c>
@@ -4375,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:5">
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>46</v>
       </c>
@@ -4392,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:5">
+    <row r="50" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>47</v>
       </c>
@@ -4409,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:5">
+    <row r="51" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>48</v>
       </c>
@@ -4426,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:5">
+    <row r="52" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>49</v>
       </c>
@@ -4443,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="16.5" spans="1:5">
+    <row r="53" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>50</v>
       </c>
@@ -4460,7 +5512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:5">
+    <row r="54" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>51</v>
       </c>
@@ -4477,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:5">
+    <row r="55" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>52</v>
       </c>
@@ -4494,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:5">
+    <row r="56" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>53</v>
       </c>
@@ -4511,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:5">
+    <row r="57" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>54</v>
       </c>
@@ -4528,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:5">
+    <row r="58" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>55</v>
       </c>
@@ -4545,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:5">
+    <row r="59" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>56</v>
       </c>
@@ -4562,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:5">
+    <row r="60" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>57</v>
       </c>
@@ -4579,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:5">
+    <row r="61" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>58</v>
       </c>
@@ -4596,7 +5648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:5">
+    <row r="62" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>59</v>
       </c>
@@ -4613,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:5">
+    <row r="63" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>60</v>
       </c>
@@ -4631,7 +5683,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -1,36 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6377758B-B966-4C71-A466-4DA286C34D50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="全局表" sheetId="26" r:id="rId2"/>
-    <sheet name="文本表" sheetId="31" r:id="rId3"/>
-    <sheet name="邮件" sheetId="30" r:id="rId4"/>
-    <sheet name="帮助表" sheetId="28" r:id="rId5"/>
-    <sheet name="等级解锁" sheetId="29" r:id="rId6"/>
+    <sheet name="邮件" sheetId="30" r:id="rId3"/>
+    <sheet name="等级解锁" sheetId="29" r:id="rId4"/>
+    <sheet name="国战-全局表" sheetId="32" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.数值型
+2.字符串型
+3.布尔型
+4.数值型数组
+5.字符串数组</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="280">
   <si>
     <t>sheet名</t>
   </si>
@@ -107,12 +143,6 @@
     <t>服务端的全局表</t>
   </si>
   <si>
-    <t>帮助表</t>
-  </si>
-  <si>
-    <t>help.lua</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -128,9 +158,6 @@
     <t>time_mail.txt</t>
   </si>
   <si>
-    <t>文本表</t>
-  </si>
-  <si>
     <t>Key</t>
   </si>
   <si>
@@ -498,450 +525,6 @@
   </si>
   <si>
     <t>经验的道具ID</t>
-  </si>
-  <si>
-    <t>Words</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nt:&lt;&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>string:&lt;</t>
-  </si>
-  <si>
-    <t>备注，策划一定要写清楚，这个文本在哪用的，不然日后很难维护</t>
-  </si>
-  <si>
-    <t>文本</t>
-  </si>
-  <si>
-    <t>派遣巡逻详情界面快速巡逻提示</t>
-  </si>
-  <si>
-    <t>使用派遣令立即获得巡逻%s分钟奖励</t>
-  </si>
-  <si>
-    <t>派遣菜单界面右侧普通条件显示</t>
-  </si>
-  <si>
-    <t>通关普通&lt;color=#FEC200&gt;%s&lt;/color&gt;-%s开启</t>
-  </si>
-  <si>
-    <t>派遣菜单界面右侧困难条件显示</t>
-  </si>
-  <si>
-    <t>通关困难&lt;color=#FEC200&gt;%s&lt;/color&gt;-%s开启</t>
-  </si>
-  <si>
-    <t>公告界面活动按钮</t>
-  </si>
-  <si>
-    <t>活动</t>
-  </si>
-  <si>
-    <t>公告界面公告按钮</t>
-  </si>
-  <si>
-    <t>公告</t>
-  </si>
-  <si>
-    <t>卡牌详情进阶时等级提示</t>
-  </si>
-  <si>
-    <t>等级上限提升至%s级</t>
-  </si>
-  <si>
-    <t>商店界面</t>
-  </si>
-  <si>
-    <t>本日</t>
-  </si>
-  <si>
-    <t>本周</t>
-  </si>
-  <si>
-    <t>本月</t>
-  </si>
-  <si>
-    <t>商店界面日期购买提示</t>
-  </si>
-  <si>
-    <t>%s还可购买&lt;color=#f9be00&gt;%s&lt;/color&gt;次</t>
-  </si>
-  <si>
-    <t>商店折扣</t>
-  </si>
-  <si>
-    <t>%.1f折</t>
-  </si>
-  <si>
-    <t>派遣巡逻队伍数量显示</t>
-  </si>
-  <si>
-    <t>派遣队伍的数量：&lt;color=#FEC200&gt;%s&lt;/color&gt;/%s</t>
-  </si>
-  <si>
-    <t>邮件系统全部</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>邮件系统系统</t>
-  </si>
-  <si>
-    <t>系统</t>
-  </si>
-  <si>
-    <t>邮件系统战报</t>
-  </si>
-  <si>
-    <t>战报</t>
-  </si>
-  <si>
-    <t>邮件删除按钮</t>
-  </si>
-  <si>
-    <t>删除</t>
-  </si>
-  <si>
-    <t>邮件领取按钮</t>
-  </si>
-  <si>
-    <t>领取</t>
-  </si>
-  <si>
-    <t>备战界面守护灵页签</t>
-  </si>
-  <si>
-    <t>守护灵</t>
-  </si>
-  <si>
-    <t>备战界面寄灵人页签</t>
-  </si>
-  <si>
-    <t>寄灵人</t>
-  </si>
-  <si>
-    <t>派遣巡逻派遣令不足提示</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;快速巡逻失败，消耗&lt;color=#00ECFF&gt;【牧守令】&lt;/color&gt;不足&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>派遣巡逻清空队伍提示</t>
-  </si>
-  <si>
-    <t>没有队伍，无法清空</t>
-  </si>
-  <si>
-    <t>派遣巡逻队伍提示</t>
-  </si>
-  <si>
-    <t>没有队伍，无法巡逻</t>
-  </si>
-  <si>
-    <t>派遣巡逻选择英雄提示</t>
-  </si>
-  <si>
-    <t>英雄选择已满</t>
-  </si>
-  <si>
-    <t>派遣巡逻队伍满提示</t>
-  </si>
-  <si>
-    <t>派遣队伍已满</t>
-  </si>
-  <si>
-    <t>派遣巡逻中间关卡点条件提示</t>
-  </si>
-  <si>
-    <t>需通关普通&lt;color=#FEC200&gt;%s&lt;/color&gt;-%s开启巡逻点后再试</t>
-  </si>
-  <si>
-    <t>需通关困难&lt;color=#FEC200&gt;%s&lt;/color&gt;-%s开启巡逻点后再试</t>
-  </si>
-  <si>
-    <t>通用材料不足提示</t>
-  </si>
-  <si>
-    <t>材料不足</t>
-  </si>
-  <si>
-    <t>通用经验不足提示</t>
-  </si>
-  <si>
-    <t>经验不足</t>
-  </si>
-  <si>
-    <t>开启挂机功能提示</t>
-  </si>
-  <si>
-    <t>通关剧情&lt;color=#FEC200&gt;%s&lt;/color&gt;-%s开启</t>
-  </si>
-  <si>
-    <t>快速巡逻完成提示</t>
-  </si>
-  <si>
-    <t>快速巡逻完成，消耗&lt;color=green&gt;【派遣令*1】&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>无邮件信息提示</t>
-  </si>
-  <si>
-    <t>暂无邮件可操作~</t>
-  </si>
-  <si>
-    <t>没有领取邮件提示</t>
-  </si>
-  <si>
-    <t>无邮件可领取</t>
-  </si>
-  <si>
-    <t>布阵无卡牌提示</t>
-  </si>
-  <si>
-    <t>阵容上最少要布置一张卡牌</t>
-  </si>
-  <si>
-    <t>布阵守护灵上阵提示</t>
-  </si>
-  <si>
-    <t>守护灵无法单独上阵</t>
-  </si>
-  <si>
-    <t>技能无法释放提示</t>
-  </si>
-  <si>
-    <t>行动次数已达上限</t>
-  </si>
-  <si>
-    <t>寄灵人已阵亡</t>
-  </si>
-  <si>
-    <t>异常状态，无法使用</t>
-  </si>
-  <si>
-    <t>被动技能，无法使用</t>
-  </si>
-  <si>
-    <t>冷却时间剩余%s回合</t>
-  </si>
-  <si>
-    <t>水晶不足，无法释放</t>
-  </si>
-  <si>
-    <t>指令不可撤销</t>
-  </si>
-  <si>
-    <t>未携带守护灵，无法召唤</t>
-  </si>
-  <si>
-    <t>技能未解锁</t>
-  </si>
-  <si>
-    <t>请安装武灵技</t>
-  </si>
-  <si>
-    <t>通用功能未开放提示</t>
-  </si>
-  <si>
-    <t>功能暂未开放！</t>
-  </si>
-  <si>
-    <t>通用使用弹窗上限提示</t>
-  </si>
-  <si>
-    <t>使用数量超限！</t>
-  </si>
-  <si>
-    <t>卡牌详情升星页签提示</t>
-  </si>
-  <si>
-    <t>该角色不能升星</t>
-  </si>
-  <si>
-    <t>卡牌详情专属武器页签提示</t>
-  </si>
-  <si>
-    <t>该角色没有专属武器</t>
-  </si>
-  <si>
-    <t>卡牌详情专属未知页签提示</t>
-  </si>
-  <si>
-    <t>点击--</t>
-  </si>
-  <si>
-    <t>通用点击按钮频繁</t>
-  </si>
-  <si>
-    <t>操作频繁</t>
-  </si>
-  <si>
-    <t>体力不足</t>
-  </si>
-  <si>
-    <t>登陆注册界面提示</t>
-  </si>
-  <si>
-    <t>请按照规范输入信息！</t>
-  </si>
-  <si>
-    <t>账号输入太短或太长！</t>
-  </si>
-  <si>
-    <t>密码输入太短或太长！</t>
-  </si>
-  <si>
-    <t>两次输入的密码不一致！</t>
-  </si>
-  <si>
-    <t>服务器异常提示</t>
-  </si>
-  <si>
-    <t>服务器暂未开启！</t>
-  </si>
-  <si>
-    <t>该用户账号异常！</t>
-  </si>
-  <si>
-    <t>该用户不在白名单内！</t>
-  </si>
-  <si>
-    <t>技能兑换提示</t>
-  </si>
-  <si>
-    <t>&lt;color=#B33A3A&gt;货币不足！&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>该用户密码不对！</t>
-  </si>
-  <si>
-    <t>该用户已存在！</t>
-  </si>
-  <si>
-    <t>激活码不存在！</t>
-  </si>
-  <si>
-    <t>激活码已使用！</t>
-  </si>
-  <si>
-    <t>关卡详情界面</t>
-  </si>
-  <si>
-    <t>普通关卡不能复刷</t>
-  </si>
-  <si>
-    <t>个人boss界面提示</t>
-  </si>
-  <si>
-    <t>挑战券不足</t>
-  </si>
-  <si>
-    <t>派遣巡逻领奖提示</t>
-  </si>
-  <si>
-    <t>暂无可领取奖励</t>
-  </si>
-  <si>
-    <t>技能兑换信息界面提示</t>
-  </si>
-  <si>
-    <t>&lt;color=#55FF00&gt;兑换成功，新技能已放入技能背包中&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>神器界面提示</t>
-  </si>
-  <si>
-    <t>神器最大等级低于碎片最小等级~~</t>
-  </si>
-  <si>
-    <t>通用等级上限提示</t>
-  </si>
-  <si>
-    <t>等级已达上限</t>
-  </si>
-  <si>
-    <t>派遣总览界面提示</t>
-  </si>
-  <si>
-    <t>没有派遣队伍</t>
-  </si>
-  <si>
-    <t>好友系统按钮组提示</t>
-  </si>
-  <si>
-    <t>请先移除黑名单</t>
-  </si>
-  <si>
-    <t>好友系统删除好友提示</t>
-  </si>
-  <si>
-    <t>是否与%s解除好友关系？</t>
-  </si>
-  <si>
-    <t>该难度未开启</t>
-  </si>
-  <si>
-    <t>教学关卡提示</t>
-  </si>
-  <si>
-    <t>通关上一关开启</t>
-  </si>
-  <si>
-    <t>战斗退出异常提示</t>
-  </si>
-  <si>
-    <t>结算回合，无法退出</t>
-  </si>
-  <si>
-    <t>聊天提示</t>
-  </si>
-  <si>
-    <t>最大字数不超过50</t>
-  </si>
-  <si>
-    <t>聊天内容不能为空</t>
-  </si>
-  <si>
-    <t>竞技场提示</t>
-  </si>
-  <si>
-    <t>挑战券不足，请购买后在进行挑战</t>
-  </si>
-  <si>
-    <t>您当前积分已经达到黄金段位，请退出重进</t>
-  </si>
-  <si>
-    <t>通用货币不足提示</t>
-  </si>
-  <si>
-    <t>钻石数量不足</t>
-  </si>
-  <si>
-    <t>未上榜</t>
   </si>
   <si>
     <t>Type</t>
@@ -1067,9 +650,6 @@
     <t xml:space="preserve">恭喜你，今晚竞技场积分达到{0}，特发如下奖励以资鼓励 </t>
   </si>
   <si>
-    <t>Txt</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1094,91 +674,6 @@
     </r>
   </si>
   <si>
-    <t>◆  竞技场说明  ◆</t>
-  </si>
-  <si>
-    <t>竞技场是玩家体现个人实力的地方。
-根据战斗的结果获取或者减少竞技积分。
-通过积分进行排名。</t>
-  </si>
-  <si>
-    <t>◆ 芦花古楼说明  ◆</t>
-  </si>
-  <si>
-    <t>芦花古楼分为风、花、雪、月四个关卡。
-每个关卡限定玩家使用特定卡牌进行挑战。
-随着玩家挑战的进度可以获得芦花古币，进而在芦花商店里兑换养成资源。</t>
-  </si>
-  <si>
-    <t>◆  扭蛋说明  ◆</t>
-  </si>
-  <si>
-    <t>寄灵人出现概率公示
-SSR：2%
-SR：28%
-R：70%
-守护灵出现概率公示
-SSR：2%
-SR：28%
-R：70%</t>
-  </si>
-  <si>
-    <t>◆  获取技能经验说明  ◆</t>
-  </si>
-  <si>
-    <t>玩家可以通过分解守护灵碎片，获得技能经验。
-技能经验可以用来给守护灵技能升级。</t>
-  </si>
-  <si>
-    <t>◆  单人镇魂说明  ◆</t>
-  </si>
-  <si>
-    <t>每日都会开放不同的魂体敌人。
-玩家可以通过挑战获得大量养成资源。</t>
-  </si>
-  <si>
-    <t>◆  神器说明  ◆</t>
-  </si>
-  <si>
-    <t>神器可为所有卡牌加成属性
-神器有多个碎片，碎片可升级
-神器最大等级取决于碎片的最小等级，升级神器大幅提升属性。</t>
-  </si>
-  <si>
-    <t>◆  专属武器说明  ◆</t>
-  </si>
-  <si>
-    <t>每个守护灵都有自己的专属武器。
-激活专属武器可以带来外观的变化。
-专属武器可以升级解封。</t>
-  </si>
-  <si>
-    <t>◆  冒险说明  ◆</t>
-  </si>
-  <si>
-    <t>玩家可以通过战斗关卡解锁新剧情和增强自己实力</t>
-  </si>
-  <si>
-    <t>◆  通灵说明  ◆</t>
-  </si>
-  <si>
-    <t>指定角色组合达到一定条件可通灵召唤更强大的角色</t>
-  </si>
-  <si>
-    <t>◆  教学关卡  ◆</t>
-  </si>
-  <si>
-    <t>每关教你一个小套路，助你早日成为强力镇魂将</t>
-  </si>
-  <si>
-    <t>◆  派遣巡逻  ◆</t>
-  </si>
-  <si>
-    <t>可以派遣1~6名任意角色在已开启的巡逻点巡逻
-巡逻不论是否在线，均按时长给予奖励，是升级的最佳手段
-每天有最多8小时的收益限制，巡逻超出时限后，当天内不再获得奖励</t>
-  </si>
-  <si>
     <t>CardLevel</t>
   </si>
   <si>
@@ -1221,67 +716,371 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>兵力已经达到上限</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>征兵</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>征兵Item</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>充能中</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>words.lua</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>立即完成</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否确认开始征募</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>无可征兵队伍</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>无可停止队伍</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>TatalDemagePosW</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>TatalDemagePosD</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>#note</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&gt;</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>行ID</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeamMaximum</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>国战-初始部队数量上限</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialWood</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>国战-初始银木数量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialIron</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>国战-初始赤铁数量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialStone</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>国战-初始精石数量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialFood</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>国战-初始灵谷数量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialWoodMax</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>国战-初始银木储量上限</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialIronMax</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>国战-初始赤铁储量上限</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialStoneMax</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>国战-初始精石储量上限</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialFoodMax</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>国战-初始灵谷储量上限</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialResProductNum</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>国战-初始资源产量(量)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialResProductSec</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>国战-初始资源速率(秒)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>FameSpeedNum</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>声望增长数量(量)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>FameSpeedSec</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>声望增长速率(秒)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecreeSpdNum</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>军令恢复数量(量)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecreeSpdSec</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>军令恢复速率(秒)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResRefresh</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源产量结算刷新时间(秒)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialCorps</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍初始军团id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialCorpsNum</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可解锁军团上限</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>GridSpeed</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1格单位基础行军时间(秒)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobilityNum</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动力恢复数量(量)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MobilitySpdSec</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动力恢复速率(秒)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManoeuvreCost</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动力消耗-调动</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>WipeOutCost</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动力消耗-剿匪</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackCost</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动力消耗-出征</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefendCost</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动力消耗-驻守</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>WipeOutEndLv</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>剿匪挑战限制截止等级</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>InjuredRecovery</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>重伤恢复时间(秒)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecruitReturn</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止征兵时资源返还比例</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>UninstallReturn</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>下阵时资源返还比例</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResDurNeutral</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源点-中立时耐久</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResDurOccupied</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源点-占领后耐久</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResDurNum</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源点-耐久恢复量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResDurSpdSec</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源点-耐久恢复速率(秒)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechQueue</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技研发队列数量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReserveForceNum</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇储备军力恢复量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReserveForceSpdSec</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇储备军力恢复速率(秒)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceConstant</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>统御等级对应军力值系数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>国战-全局表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>国战-全局表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>global.lua</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>global.txt</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1381,6 +1180,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1426,7 +1232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1460,19 +1266,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1502,8 +1297,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -1513,9 +1317,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="7">
@@ -1532,24 +1333,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="14" applyFont="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="14" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="15" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="15" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="15" quotePrefix="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+  <cellStyles count="16">
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Grid 2" xfId="15"/>
+    <cellStyle name="Normal" xfId="7"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2" xfId="8"/>
+    <cellStyle name="超链接 2" xfId="9"/>
+    <cellStyle name="大标题" xfId="6"/>
+    <cellStyle name="横向标题" xfId="1"/>
+    <cellStyle name="文本" xfId="10"/>
+    <cellStyle name="无效" xfId="11"/>
+    <cellStyle name="因变Grid" xfId="3"/>
+    <cellStyle name="英文标题" xfId="2"/>
+    <cellStyle name="英文标题 2" xfId="13"/>
+    <cellStyle name="中文标题" xfId="12"/>
+    <cellStyle name="中文标题 2" xfId="14"/>
+    <cellStyle name="纵向标题" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1821,11 +1641,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1915,16 +1735,16 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1934,16 +1754,16 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1953,49 +1773,49 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+        <v>278</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>275</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>192</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -2005,11 +1825,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
@@ -2031,86 +1851,86 @@
         <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -2118,10 +1938,10 @@
         <v>101</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -2130,15 +1950,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>102</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -2151,15 +1971,15 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -2172,15 +1992,15 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>104</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -2193,15 +2013,15 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -2214,15 +2034,15 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -2235,15 +2055,15 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -2256,15 +2076,15 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>108</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -2277,15 +2097,15 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>109</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -2298,15 +2118,15 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>110</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -2319,15 +2139,15 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>111</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -2340,36 +2160,36 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>112</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="11" t="s">
-        <v>71</v>
+      <c r="F15" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>113</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D16" s="4">
         <v>5</v>
@@ -2379,7 +2199,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -2387,10 +2207,10 @@
         <v>114</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -2408,10 +2228,10 @@
         <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -2429,10 +2249,10 @@
         <v>116</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -2450,10 +2270,10 @@
         <v>117</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -2461,20 +2281,20 @@
       <c r="E20" s="4">
         <v>100</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>118</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -2482,20 +2302,20 @@
       <c r="E21" s="4">
         <v>3</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>119</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -2503,20 +2323,20 @@
       <c r="E22" s="4">
         <v>6</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>120</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -2524,20 +2344,20 @@
       <c r="E23" s="4">
         <v>30</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>121</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -2555,10 +2375,10 @@
         <v>122</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -2576,10 +2396,10 @@
         <v>123</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -2597,10 +2417,10 @@
         <v>124</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -2618,17 +2438,17 @@
         <v>125</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D28" s="4">
         <v>2</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -2639,10 +2459,10 @@
         <v>126</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D29" s="4">
         <v>5</v>
@@ -2652,7 +2472,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2660,10 +2480,10 @@
         <v>127</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -2681,10 +2501,10 @@
         <v>128</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -2692,20 +2512,20 @@
       <c r="E31" s="4">
         <v>1</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>129</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -2713,20 +2533,20 @@
       <c r="E32" s="4">
         <v>1</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>130</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -2734,20 +2554,20 @@
       <c r="E33" s="4">
         <v>1</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>131</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -2755,20 +2575,20 @@
       <c r="E34" s="4">
         <v>1</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
     </row>
     <row r="35" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>132</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -2786,10 +2606,10 @@
         <v>133</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -2807,10 +2627,10 @@
         <v>134</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -2828,10 +2648,10 @@
         <v>135</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -2839,7 +2659,7 @@
       <c r="E38" s="4">
         <v>104</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
@@ -2849,10 +2669,10 @@
         <v>136</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -2860,7 +2680,7 @@
       <c r="E39" s="4">
         <v>1103</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -2870,10 +2690,10 @@
         <v>137</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -2891,17 +2711,17 @@
         <v>138</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D41" s="4">
         <v>2</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -2912,10 +2732,10 @@
         <v>139</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -2933,10 +2753,10 @@
         <v>140</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -2954,10 +2774,10 @@
         <v>141</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -2975,10 +2795,10 @@
         <v>142</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -2996,10 +2816,10 @@
         <v>143</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -3017,52 +2837,52 @@
         <v>144</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>369</v>
+        <v>190</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>354</v>
+        <v>187</v>
       </c>
       <c r="D47" s="4">
         <v>4</v>
       </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="10"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="9"/>
       <c r="I47" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>145</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" s="8">
-        <v>1</v>
-      </c>
-      <c r="E48" s="8">
+      <c r="B48" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
+      <c r="E48" s="7">
         <v>4</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
     </row>
     <row r="49" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>146</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -3070,20 +2890,20 @@
       <c r="E49" s="4">
         <v>6</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>147</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -3101,20 +2921,20 @@
         <v>148</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>370</v>
+        <v>191</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>355</v>
+        <v>188</v>
       </c>
       <c r="D51" s="4">
         <v>4</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="10"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="9"/>
       <c r="I51" s="4" t="s">
-        <v>356</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3126,1062 +2946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C94"/>
-  <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="31.25" customWidth="1"/>
-    <col min="3" max="3" width="50.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>100001</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>100002</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>100003</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>100004</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>100005</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>100006</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>100007</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>100008</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>100009</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>100010</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>100011</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>100012</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>100013</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>100014</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>100015</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>100016</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>100017</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>100018</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>100019</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>100020</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>100021</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>100022</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>100023</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>100024</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>100025</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>100026</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>100027</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>100028</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>100029</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>100030</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>100031</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>100032</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>100033</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>100034</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>100035</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>100036</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>100037</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>100038</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>100039</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>100040</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>100041</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>100042</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>100043</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>100044</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>100045</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>100046</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>100047</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>100048</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>100049</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>100050</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>100051</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>100052</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>100053</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <v>100054</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <v>100055</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <v>100056</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>100057</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <v>100058</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>100059</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <v>100060</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <v>100061</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>100062</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>100063</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>100064</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>100065</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>100066</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <v>100067</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <v>100068</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <v>100069</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>100070</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <v>100071</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <v>100072</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <v>100073</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
-        <v>100074</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <v>100075</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
-        <v>100076</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
-        <v>100077</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
-        <v>100078</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
-        <v>100079</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
-        <v>100080</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
-        <v>100081</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
-        <v>100082</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
-        <v>100083</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="12">
-        <v>100084</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="12">
-        <v>100085</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="12">
-        <v>100086</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="12">
-        <v>100087</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="12">
-        <v>100088</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="12">
-        <v>100089</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="12">
-        <v>100090</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="12">
-        <v>100091</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>368</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4202,89 +2967,89 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>287</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>289</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>290</v>
+        <v>146</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>291</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>292</v>
+        <v>148</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>293</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>294</v>
+        <v>150</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>295</v>
+        <v>151</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>296</v>
+        <v>152</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>296</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>297</v>
+        <v>153</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>298</v>
+        <v>154</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>299</v>
+        <v>155</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>300</v>
+        <v>156</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>301</v>
+        <v>157</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>302</v>
+        <v>158</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>303</v>
+        <v>159</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>304</v>
+        <v>160</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>305</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -4295,17 +3060,17 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>306</v>
+        <v>162</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>307</v>
+        <v>163</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>308</v>
+        <v>164</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>309</v>
+        <v>165</v>
       </c>
       <c r="H4" s="4">
         <v>50</v>
@@ -4320,17 +3085,17 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>306</v>
+        <v>162</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>310</v>
+        <v>166</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>311</v>
+        <v>167</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>309</v>
+        <v>165</v>
       </c>
       <c r="H5" s="4">
         <v>50</v>
@@ -4345,17 +3110,17 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>306</v>
+        <v>162</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>312</v>
+        <v>168</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>313</v>
+        <v>169</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>309</v>
+        <v>165</v>
       </c>
       <c r="H6" s="4">
         <v>50</v>
@@ -4372,10 +3137,10 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>314</v>
+        <v>170</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>315</v>
+        <v>171</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -4391,10 +3156,10 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>316</v>
+        <v>172</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>317</v>
+        <v>173</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -4410,10 +3175,10 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>318</v>
+        <v>174</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>319</v>
+        <v>175</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -4425,180 +3190,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21.375" customWidth="1"/>
-    <col min="3" max="3" width="82.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="132" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>6</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4613,53 +3206,53 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>344</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>345</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>346</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>347</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>321</v>
+        <v>176</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>321</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>348</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>348</v>
+        <v>181</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>321</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>297</v>
+        <v>153</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>349</v>
+        <v>182</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>350</v>
+        <v>183</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>351</v>
+        <v>184</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>352</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -4670,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>353</v>
+        <v>186</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>353</v>
+        <v>186</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -5686,4 +4279,825 @@
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="24" style="12" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="12" customWidth="1"/>
+    <col min="4" max="4" width="10" style="12" customWidth="1"/>
+    <col min="5" max="5" width="9" style="12"/>
+    <col min="6" max="6" width="17.875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9" style="12"/>
+    <col min="8" max="8" width="77.25" style="12" customWidth="1"/>
+    <col min="9" max="9" width="50.375" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15">
+        <v>3</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>80000</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>80000</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
+        <v>80000</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
+        <v>80000</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="15">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15">
+        <v>80000</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>10007</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15">
+        <v>80000</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>10008</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15">
+        <v>80000</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>10009</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
+        <v>80000</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>10010</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>10011</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15">
+        <v>3600</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>10012</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>10013</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15">
+        <v>20</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>10014</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="15">
+        <v>10015</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15">
+        <v>3600</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>10016</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15">
+        <v>30</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>10017</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>10018</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15">
+        <v>2</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>10019</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
+        <v>10020</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
+        <v>10021</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
+        <v>10022</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="15">
+        <v>10023</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+      <c r="E26" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
+        <v>10024</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
+        <v>10025</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1</v>
+      </c>
+      <c r="E28" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="15">
+        <v>10026</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1</v>
+      </c>
+      <c r="E29" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="15">
+        <v>10027</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="12">
+        <v>1</v>
+      </c>
+      <c r="E30" s="12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="15">
+        <v>10028</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="12">
+        <v>3</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="15">
+        <v>10029</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="12">
+        <v>3</v>
+      </c>
+      <c r="E32" s="12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="15">
+        <v>10030</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D33" s="12">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="15">
+        <v>10031</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D34" s="12">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="15">
+        <v>10032</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="15">
+        <v>10033</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="E36" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="15">
+        <v>10034</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="15">
+        <v>10035</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="15">
+        <v>10036</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1</v>
+      </c>
+      <c r="E39" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="15">
+        <v>10037</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="286">
   <si>
     <t>sheet名</t>
   </si>
@@ -1073,6 +1073,30 @@
   </si>
   <si>
     <t>global.txt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>wBossMaxTime</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>wBossEverydayTime</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>wBossRegainTime</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS最大次数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS每日回复次数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界BOSS每日次数回复时间</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1267,7 +1291,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1297,15 +1321,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1333,29 +1348,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="13" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="14" applyFont="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="14" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="15" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="15" quotePrefix="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="15" quotePrefix="1" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="13">
     <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Grid 2" xfId="15"/>
     <cellStyle name="Normal" xfId="7"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="8"/>
@@ -1366,9 +1368,7 @@
     <cellStyle name="无效" xfId="11"/>
     <cellStyle name="因变Grid" xfId="3"/>
     <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="英文标题 2" xfId="13"/>
     <cellStyle name="中文标题" xfId="12"/>
-    <cellStyle name="中文标题 2" xfId="14"/>
     <cellStyle name="纵向标题" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1644,7 +1644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1826,13 +1826,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
+      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2936,6 +2936,69 @@
       <c r="I51" s="4" t="s">
         <v>189</v>
       </c>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>149</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4">
+        <v>6</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>150</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
+        <v>2</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>151</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="8">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>

--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="287">
   <si>
     <t>sheet名</t>
   </si>
@@ -1097,6 +1097,10 @@
   </si>
   <si>
     <t>世界BOSS每日次数回复时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>5:00</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1322,7 +1326,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -1355,6 +1359,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4"/>
@@ -1832,7 +1839,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2993,8 +3000,8 @@
         <v>2</v>
       </c>
       <c r="E54" s="4"/>
-      <c r="F54" s="8">
-        <v>0.20833333333333334</v>
+      <c r="F54" s="18" t="s">
+        <v>286</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>

--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -1839,7 +1839,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -1839,7 +1839,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C57" sqref="C57"/>
+      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AD1B61-7589-47B5-998E-1B67DF9F202C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -23,12 +24,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,12 +62,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="295">
   <si>
     <t>sheet名</t>
   </si>
@@ -1103,11 +1104,43 @@
     <t>5:00</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>讨伐区-自动补充时间n</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨伐区-下限触发刷新数量x</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoSupply</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerRefresh</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源点-放弃所需时间(秒)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAbandon</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResAvoidTime</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源点-免战时间(秒)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1364,19 +1397,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="超链接 2" xfId="9"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="10"/>
-    <cellStyle name="无效" xfId="11"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="12"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1648,7 +1681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1832,14 +1865,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2790,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -2811,7 +2844,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -3016,7 +3049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3261,7 +3294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4352,14 +4385,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5096,38 +5129,38 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>10034</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="D37" s="12">
-        <v>1</v>
-      </c>
-      <c r="E37" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="D37" s="15">
+        <v>1</v>
+      </c>
+      <c r="E37" s="15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>10035</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D38" s="12">
-        <v>1</v>
-      </c>
-      <c r="E38" s="12">
-        <v>1</v>
+      <c r="B38" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="D38" s="15">
+        <v>1</v>
+      </c>
+      <c r="E38" s="15">
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -5135,16 +5168,16 @@
         <v>10036</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D39" s="12">
         <v>1</v>
       </c>
       <c r="E39" s="12">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -5152,16 +5185,84 @@
         <v>10037</v>
       </c>
       <c r="B40" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+      <c r="E40" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="15">
+        <v>10038</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="D41" s="12">
+        <v>1</v>
+      </c>
+      <c r="E41" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="15">
+        <v>10039</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C42" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D40" s="12">
-        <v>1</v>
-      </c>
-      <c r="E40" s="12">
+      <c r="D42" s="12">
+        <v>1</v>
+      </c>
+      <c r="E42" s="12">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="15">
+        <v>10040</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D43" s="12">
+        <v>1</v>
+      </c>
+      <c r="E43" s="12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="15">
+        <v>10041</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZHJ_PROJECT\trunk\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AD1B61-7589-47B5-998E-1B67DF9F202C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -24,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,12 +61,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="299">
   <si>
     <t>sheet名</t>
   </si>
@@ -977,10 +976,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>RecruitReturn</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>停止征兵时资源返还比例</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1022,14 +1017,6 @@
   </si>
   <si>
     <t>资源点-耐久恢复速率(秒)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>TechQueue</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技研发队列数量</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1134,13 +1121,41 @@
   </si>
   <si>
     <t>资源点-免战时间(秒)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技-立即完成消耗钻石</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技-研发队列数量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecruitReturn</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechQueue</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技-取消升级返还资源</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechReturn</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechFinish</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1397,19 +1412,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="7"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2" xfId="8"/>
+    <cellStyle name="超链接 2" xfId="9"/>
+    <cellStyle name="大标题" xfId="6"/>
+    <cellStyle name="横向标题" xfId="1"/>
+    <cellStyle name="文本" xfId="10"/>
+    <cellStyle name="无效" xfId="11"/>
+    <cellStyle name="因变Grid" xfId="3"/>
+    <cellStyle name="英文标题" xfId="2"/>
+    <cellStyle name="中文标题" xfId="12"/>
+    <cellStyle name="纵向标题" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1681,7 +1696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1815,17 +1830,17 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>9</v>
@@ -1838,11 +1853,11 @@
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>192</v>
@@ -1865,11 +1880,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
@@ -2982,10 +2997,10 @@
         <v>149</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -3003,10 +3018,10 @@
         <v>150</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -3024,17 +3039,17 @@
         <v>151</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="D54" s="4">
         <v>2</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -3049,7 +3064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3294,7 +3309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4385,14 +4400,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30:E31"/>
+      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5032,10 +5047,10 @@
         <v>10028</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>255</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>256</v>
       </c>
       <c r="D31" s="12">
         <v>3</v>
@@ -5049,10 +5064,10 @@
         <v>10029</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>257</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>258</v>
       </c>
       <c r="D32" s="12">
         <v>3</v>
@@ -5066,10 +5081,10 @@
         <v>10030</v>
       </c>
       <c r="B33" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>260</v>
       </c>
       <c r="D33" s="12">
         <v>1</v>
@@ -5083,10 +5098,10 @@
         <v>10031</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>261</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>262</v>
       </c>
       <c r="D34" s="12">
         <v>1</v>
@@ -5100,10 +5115,10 @@
         <v>10032</v>
       </c>
       <c r="B35" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>263</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>264</v>
       </c>
       <c r="D35" s="12">
         <v>1</v>
@@ -5117,10 +5132,10 @@
         <v>10033</v>
       </c>
       <c r="B36" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>266</v>
       </c>
       <c r="D36" s="12">
         <v>1</v>
@@ -5134,10 +5149,10 @@
         <v>10034</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D37" s="15">
         <v>1</v>
@@ -5151,10 +5166,10 @@
         <v>10035</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D38" s="15">
         <v>1</v>
@@ -5168,10 +5183,10 @@
         <v>10036</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="D39" s="12">
         <v>1</v>
@@ -5180,38 +5195,38 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>10037</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="D40" s="12">
-        <v>1</v>
-      </c>
-      <c r="E40" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D40" s="15">
+        <v>3</v>
+      </c>
+      <c r="E40" s="15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>10038</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="D41" s="12">
-        <v>1</v>
-      </c>
-      <c r="E41" s="12">
-        <v>60</v>
+      <c r="B41" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="D41" s="15">
+        <v>1</v>
+      </c>
+      <c r="E41" s="15">
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -5219,16 +5234,16 @@
         <v>10039</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D42" s="12">
         <v>1</v>
       </c>
       <c r="E42" s="12">
-        <v>1000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -5236,16 +5251,16 @@
         <v>10040</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="D43" s="12">
         <v>1</v>
       </c>
       <c r="E43" s="12">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -5253,15 +5268,49 @@
         <v>10041</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>288</v>
+        <v>270</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="D44" s="12">
         <v>1</v>
       </c>
       <c r="E44" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="15">
+        <v>10042</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D45" s="12">
+        <v>1</v>
+      </c>
+      <c r="E45" s="12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="15">
+        <v>10043</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="D46" s="12">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12">
         <v>0.5</v>
       </c>
     </row>

--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="311">
   <si>
     <t>sheet名</t>
   </si>
@@ -1150,6 +1150,42 @@
   <si>
     <t>TechFinish</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>接战区-中立时耐久</t>
+  </si>
+  <si>
+    <t>接战区-占领后耐久</t>
+  </si>
+  <si>
+    <t>接战区-耐久恢复量</t>
+  </si>
+  <si>
+    <t>接战区-耐久恢复速率(秒)</t>
+  </si>
+  <si>
+    <t>接战区-放弃所需时间(秒)</t>
+  </si>
+  <si>
+    <t>接战区-免战时间(秒)</t>
+  </si>
+  <si>
+    <t>BattleDurNeutral</t>
+  </si>
+  <si>
+    <t>BattleDurOccupied</t>
+  </si>
+  <si>
+    <t>BattleDurNum</t>
+  </si>
+  <si>
+    <t>BattleDurSpdSec</t>
+  </si>
+  <si>
+    <t>BattleAbandon</t>
+  </si>
+  <si>
+    <t>BattleAvoidTime</t>
   </si>
 </sst>
 </file>
@@ -4401,13 +4437,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H37" sqref="H37"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5178,21 +5214,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>10036</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="D39" s="12">
-        <v>1</v>
-      </c>
-      <c r="E39" s="12">
-        <v>2</v>
+      <c r="B39" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D39" s="15">
+        <v>1</v>
+      </c>
+      <c r="E39" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5200,16 +5236,16 @@
         <v>10037</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D40" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" s="15">
-        <v>0.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5217,67 +5253,67 @@
         <v>10038</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="D41" s="15">
         <v>1</v>
       </c>
       <c r="E41" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>10039</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D42" s="12">
-        <v>1</v>
-      </c>
-      <c r="E42" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D42" s="15">
+        <v>1</v>
+      </c>
+      <c r="E42" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>10040</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D43" s="12">
-        <v>1</v>
-      </c>
-      <c r="E43" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="D43" s="15">
+        <v>1</v>
+      </c>
+      <c r="E43" s="15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>10041</v>
       </c>
-      <c r="B44" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="D44" s="12">
-        <v>1</v>
-      </c>
-      <c r="E44" s="12">
-        <v>1000</v>
+      <c r="B44" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D44" s="15">
+        <v>1</v>
+      </c>
+      <c r="E44" s="15">
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -5285,32 +5321,134 @@
         <v>10042</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="D45" s="12">
         <v>1</v>
       </c>
       <c r="E45" s="12">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>10043</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D46" s="15">
+        <v>3</v>
+      </c>
+      <c r="E46" s="15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15">
+        <v>10044</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="D47" s="15">
+        <v>1</v>
+      </c>
+      <c r="E47" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="15">
+        <v>10045</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" s="12">
+        <v>1</v>
+      </c>
+      <c r="E48" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="15">
+        <v>10046</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" s="12">
+        <v>1</v>
+      </c>
+      <c r="E49" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="15">
+        <v>10047</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D50" s="12">
+        <v>1</v>
+      </c>
+      <c r="E50" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="15">
+        <v>10048</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D51" s="12">
+        <v>1</v>
+      </c>
+      <c r="E51" s="12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="15">
+        <v>10049</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="D46" s="12">
-        <v>1</v>
-      </c>
-      <c r="E46" s="12">
+      <c r="D52" s="12">
+        <v>1</v>
+      </c>
+      <c r="E52" s="12">
         <v>0.5</v>
       </c>
     </row>

--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZHJ_PROJECT\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -512,13 +512,7 @@
     <t>InitCrystalAmount</t>
   </si>
   <si>
-    <t>初始回合获得水晶数量</t>
-  </si>
-  <si>
     <t>InitCrystalAmountMonster</t>
-  </si>
-  <si>
-    <t>初始回合获得水晶数量（怪物）</t>
   </si>
   <si>
     <t>ExpItemID</t>
@@ -1186,6 +1180,14 @@
   </si>
   <si>
     <t>BattleAvoidTime</t>
+  </si>
+  <si>
+    <t>初始回合获得水晶数量（教学关卡生效）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始回合获得水晶数量（教学关卡生效）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1866,17 +1868,17 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>9</v>
@@ -1889,14 +1891,14 @@
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
@@ -1919,11 +1921,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2928,10 +2930,10 @@
         <v>144</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D47" s="4">
         <v>4</v>
@@ -2944,57 +2946,57 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>145</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C48" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="7">
-        <v>1</v>
-      </c>
-      <c r="E48" s="7">
+      <c r="C48" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
         <v>4</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
     </row>
     <row r="49" spans="1:9" ht="33" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>146</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
       </c>
       <c r="E49" s="4">
-        <v>6</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
     </row>
     <row r="50" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>147</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -3012,10 +3014,10 @@
         <v>148</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D51" s="4">
         <v>4</v>
@@ -3025,7 +3027,7 @@
       <c r="G51" s="7"/>
       <c r="H51" s="9"/>
       <c r="I51" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3033,10 +3035,10 @@
         <v>149</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -3054,10 +3056,10 @@
         <v>150</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -3075,17 +3077,17 @@
         <v>151</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D54" s="4">
         <v>2</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -3124,28 +3126,28 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -3165,45 +3167,45 @@
         <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3214,17 +3216,17 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="H4" s="4">
         <v>50</v>
@@ -3239,17 +3241,17 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H5" s="4">
         <v>50</v>
@@ -3264,17 +3266,17 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H6" s="4">
         <v>50</v>
@@ -3291,10 +3293,10 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -3310,10 +3312,10 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -3329,10 +3331,10 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -3363,50 +3365,50 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3417,10 +3419,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -4439,8 +4441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
@@ -4462,13 +4464,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>195</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>21</v>
@@ -4491,16 +4493,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>30</v>
@@ -4520,13 +4522,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>38</v>
@@ -4552,10 +4554,10 @@
         <v>10001</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D4" s="15">
         <v>1</v>
@@ -4573,10 +4575,10 @@
         <v>10002</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D5" s="15">
         <v>1</v>
@@ -4594,10 +4596,10 @@
         <v>10003</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D6" s="15">
         <v>1</v>
@@ -4615,10 +4617,10 @@
         <v>10004</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D7" s="15">
         <v>1</v>
@@ -4636,10 +4638,10 @@
         <v>10005</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D8" s="15">
         <v>1</v>
@@ -4657,10 +4659,10 @@
         <v>10006</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
@@ -4678,10 +4680,10 @@
         <v>10007</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D10" s="15">
         <v>1</v>
@@ -4699,10 +4701,10 @@
         <v>10008</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D11" s="15">
         <v>1</v>
@@ -4720,10 +4722,10 @@
         <v>10009</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D12" s="15">
         <v>1</v>
@@ -4741,10 +4743,10 @@
         <v>10010</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D13" s="15">
         <v>1</v>
@@ -4762,10 +4764,10 @@
         <v>10011</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D14" s="15">
         <v>1</v>
@@ -4783,10 +4785,10 @@
         <v>10012</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D15" s="15">
         <v>1</v>
@@ -4804,10 +4806,10 @@
         <v>10013</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D16" s="15">
         <v>1</v>
@@ -4825,10 +4827,10 @@
         <v>10014</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D17" s="15">
         <v>1</v>
@@ -4846,10 +4848,10 @@
         <v>10015</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D18" s="15">
         <v>1</v>
@@ -4867,10 +4869,10 @@
         <v>10016</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D19" s="15">
         <v>1</v>
@@ -4888,10 +4890,10 @@
         <v>10017</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D20" s="15">
         <v>1</v>
@@ -4909,10 +4911,10 @@
         <v>10018</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D21" s="15">
         <v>1</v>
@@ -4930,10 +4932,10 @@
         <v>10019</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D22" s="12">
         <v>1</v>
@@ -4947,10 +4949,10 @@
         <v>10020</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D23" s="12">
         <v>1</v>
@@ -4964,10 +4966,10 @@
         <v>10021</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D24" s="12">
         <v>1</v>
@@ -4981,10 +4983,10 @@
         <v>10022</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D25" s="12">
         <v>1</v>
@@ -4998,10 +5000,10 @@
         <v>10023</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D26" s="12">
         <v>1</v>
@@ -5015,10 +5017,10 @@
         <v>10024</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D27" s="12">
         <v>1</v>
@@ -5032,10 +5034,10 @@
         <v>10025</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D28" s="12">
         <v>1</v>
@@ -5049,10 +5051,10 @@
         <v>10026</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D29" s="12">
         <v>1</v>
@@ -5066,10 +5068,10 @@
         <v>10027</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D30" s="12">
         <v>1</v>
@@ -5083,10 +5085,10 @@
         <v>10028</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D31" s="12">
         <v>3</v>
@@ -5100,10 +5102,10 @@
         <v>10029</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D32" s="12">
         <v>3</v>
@@ -5117,10 +5119,10 @@
         <v>10030</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D33" s="12">
         <v>1</v>
@@ -5134,10 +5136,10 @@
         <v>10031</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D34" s="12">
         <v>1</v>
@@ -5151,10 +5153,10 @@
         <v>10032</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D35" s="12">
         <v>1</v>
@@ -5168,10 +5170,10 @@
         <v>10033</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D36" s="12">
         <v>1</v>
@@ -5185,10 +5187,10 @@
         <v>10034</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D37" s="15">
         <v>1</v>
@@ -5202,10 +5204,10 @@
         <v>10035</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D38" s="15">
         <v>1</v>
@@ -5219,10 +5221,10 @@
         <v>10036</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D39" s="15">
         <v>1</v>
@@ -5236,10 +5238,10 @@
         <v>10037</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D40" s="15">
         <v>1</v>
@@ -5253,10 +5255,10 @@
         <v>10038</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D41" s="15">
         <v>1</v>
@@ -5270,10 +5272,10 @@
         <v>10039</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D42" s="15">
         <v>1</v>
@@ -5287,10 +5289,10 @@
         <v>10040</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D43" s="15">
         <v>1</v>
@@ -5304,10 +5306,10 @@
         <v>10041</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D44" s="15">
         <v>1</v>
@@ -5321,10 +5323,10 @@
         <v>10042</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D45" s="12">
         <v>1</v>
@@ -5338,10 +5340,10 @@
         <v>10043</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D46" s="15">
         <v>3</v>
@@ -5355,10 +5357,10 @@
         <v>10044</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D47" s="15">
         <v>1</v>
@@ -5372,10 +5374,10 @@
         <v>10045</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D48" s="12">
         <v>1</v>
@@ -5389,10 +5391,10 @@
         <v>10046</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D49" s="12">
         <v>1</v>
@@ -5406,10 +5408,10 @@
         <v>10047</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D50" s="12">
         <v>1</v>
@@ -5423,10 +5425,10 @@
         <v>10048</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D51" s="12">
         <v>1</v>
@@ -5440,10 +5442,10 @@
         <v>10049</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D52" s="12">
         <v>1</v>

--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -18,7 +18,7 @@
     <sheet name="等级解锁" sheetId="29" r:id="rId4"/>
     <sheet name="国战-全局表" sheetId="32" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="324">
   <si>
     <t>sheet名</t>
   </si>
@@ -942,10 +942,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>行动力消耗-出征</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>DefendCost</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1149,9 +1145,6 @@
     <t>接战区-中立时耐久</t>
   </si>
   <si>
-    <t>接战区-占领后耐久</t>
-  </si>
-  <si>
     <t>接战区-耐久恢复量</t>
   </si>
   <si>
@@ -1167,9 +1160,6 @@
     <t>BattleDurNeutral</t>
   </si>
   <si>
-    <t>BattleDurOccupied</t>
-  </si>
-  <si>
     <t>BattleDurNum</t>
   </si>
   <si>
@@ -1187,6 +1177,70 @@
   </si>
   <si>
     <t>初始回合获得水晶数量（教学关卡生效）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动力消耗-攻城战杀敌层</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动力消耗-出征(打资源点/讨伐怪/接战区地块)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BrokeCost</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>KillingCost</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动力消耗-攻城战破城层</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>HangTeam</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>派遣挂机队伍的等级开启</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,40,80</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MuShouLingId</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MuShouLingTime</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧守令Id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧守令时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机经验间隔</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>HangExpInteval</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>HangMaxTime</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大挂机时间</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1868,17 +1922,17 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>9</v>
@@ -1891,11 +1945,11 @@
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>190</v>
@@ -1919,13 +1973,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomRight" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2954,7 +3008,7 @@
         <v>136</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -2975,7 +3029,7 @@
         <v>137</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -3035,10 +3089,10 @@
         <v>149</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -3056,10 +3110,10 @@
         <v>150</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -3077,21 +3131,128 @@
         <v>151</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D54" s="4">
         <v>2</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>152</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D55" s="4">
+        <v>4</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>153</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1604001</v>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>154</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <f>120*60</f>
+        <v>7200</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>155</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>60</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>156</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <f>3600*8</f>
+        <v>28800</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4439,13 +4600,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4992,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="12">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -5009,7 +5170,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -5020,13 +5181,13 @@
         <v>245</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
       <c r="D27" s="12">
         <v>1</v>
       </c>
       <c r="E27" s="12">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -5034,50 +5195,50 @@
         <v>10025</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>248</v>
-      </c>
       <c r="D28" s="12">
         <v>1</v>
       </c>
       <c r="E28" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>10026</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="D29" s="12">
-        <v>1</v>
-      </c>
-      <c r="E29" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1</v>
+      </c>
+      <c r="E29" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15">
         <v>10027</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D30" s="12">
-        <v>1</v>
-      </c>
-      <c r="E30" s="12">
-        <v>180</v>
+      <c r="B30" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="D30" s="15">
+        <v>1</v>
+      </c>
+      <c r="E30" s="15">
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -5085,16 +5246,16 @@
         <v>10028</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D31" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" s="12">
-        <v>0.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -5102,16 +5263,16 @@
         <v>10029</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D32" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E32" s="12">
-        <v>0.8</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -5119,16 +5280,16 @@
         <v>10030</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D33" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" s="12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -5136,16 +5297,16 @@
         <v>10031</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D34" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" s="12">
-        <v>100</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -5153,10 +5314,10 @@
         <v>10032</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D35" s="12">
         <v>1</v>
@@ -5170,49 +5331,49 @@
         <v>10033</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D36" s="12">
         <v>1</v>
       </c>
       <c r="E36" s="12">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>10034</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D37" s="15">
-        <v>1</v>
-      </c>
-      <c r="E37" s="15">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>10035</v>
       </c>
-      <c r="B38" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="D38" s="15">
-        <v>1</v>
-      </c>
-      <c r="E38" s="15">
+      <c r="B38" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12">
         <v>60</v>
       </c>
     </row>
@@ -5221,16 +5382,16 @@
         <v>10036</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D39" s="15">
         <v>1</v>
       </c>
       <c r="E39" s="15">
-        <v>1</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5238,16 +5399,16 @@
         <v>10037</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D40" s="15">
         <v>1</v>
       </c>
       <c r="E40" s="15">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5255,10 +5416,10 @@
         <v>10038</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D41" s="15">
         <v>1</v>
@@ -5272,16 +5433,16 @@
         <v>10039</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D42" s="15">
         <v>1</v>
       </c>
       <c r="E42" s="15">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5289,16 +5450,16 @@
         <v>10040</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D43" s="15">
         <v>1</v>
       </c>
       <c r="E43" s="15">
-        <v>180</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5306,50 +5467,50 @@
         <v>10041</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D44" s="15">
         <v>1</v>
       </c>
       <c r="E44" s="15">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>10042</v>
       </c>
-      <c r="B45" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="D45" s="12">
-        <v>1</v>
-      </c>
-      <c r="E45" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="D45" s="15">
+        <v>1</v>
+      </c>
+      <c r="E45" s="15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>10043</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="D46" s="15">
-        <v>3</v>
-      </c>
-      <c r="E46" s="15">
-        <v>0.8</v>
+      <c r="B46" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D46" s="12">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5357,33 +5518,33 @@
         <v>10044</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D47" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E47" s="15">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15">
         <v>10045</v>
       </c>
-      <c r="B48" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="D48" s="12">
-        <v>1</v>
-      </c>
-      <c r="E48" s="12">
-        <v>1</v>
+      <c r="B48" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="D48" s="15">
+        <v>1</v>
+      </c>
+      <c r="E48" s="15">
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -5391,16 +5552,16 @@
         <v>10046</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D49" s="12">
         <v>1</v>
       </c>
       <c r="E49" s="12">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -5408,16 +5569,16 @@
         <v>10047</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D50" s="12">
         <v>1</v>
       </c>
       <c r="E50" s="12">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -5425,16 +5586,16 @@
         <v>10048</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D51" s="12">
         <v>1</v>
       </c>
       <c r="E51" s="12">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -5442,15 +5603,32 @@
         <v>10049</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="C52" s="15" t="s">
         <v>283</v>
       </c>
+      <c r="C52" s="12" t="s">
+        <v>281</v>
+      </c>
       <c r="D52" s="12">
         <v>1</v>
       </c>
       <c r="E52" s="12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="15">
+        <v>10050</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="D53" s="12">
+        <v>1</v>
+      </c>
+      <c r="E53" s="12">
         <v>0.5</v>
       </c>
     </row>

--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZHJ_PROJECT\trunk\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -19,6 +19,14 @@
     <sheet name="国战-全局表" sheetId="32" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -99,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="342">
   <si>
     <t>sheet名</t>
   </si>
@@ -543,30 +551,6 @@
   </si>
   <si>
     <t>MailStatus</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tring:&lt;&gt;</t>
-    </r>
   </si>
   <si>
     <t>item_id:e&lt;&gt;</t>
@@ -1172,14 +1156,6 @@
     <t>BattleAvoidTime</t>
   </si>
   <si>
-    <t>初始回合获得水晶数量（教学关卡生效）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始回合获得水晶数量（教学关卡生效）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>行动力消耗-攻城战杀敌层</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1196,51 +1172,135 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>HangTeam</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>派遣挂机队伍的等级开启</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,40,80</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MuShouLingId</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MuShouLingTime</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧守令Id</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>牧守令时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂机经验间隔</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>HangExpInteval</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>HangMaxTime</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大挂机时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始回合获得水晶数量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cstring:&lt;&gt;</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cstring:&lt;&gt;</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-7-15 05:00:00</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArenaBeginTime</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArenaDuration</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场开服时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场持续时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BattleSpeed</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗速度倍率</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitBattleSpeed</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始战斗速度倍率</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时竞技场每周排名奖励</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时竞技场赛季段位奖励</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>实时竞技场每日段位奖励</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你，今晚竞技场段位达到{0}，特发如下奖励以资鼓励</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你，本周排名达到{0}，特发如下奖励以资鼓励</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你，本赛季段位达到{0}，特发如下奖励以资鼓励</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sender</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>发件人</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇魂街居委会</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>行动力消耗-攻城战破城层</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>HangTeam</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>派遣挂机队伍的等级开启</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,40,80</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MuShouLingId</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>MuShouLingTime</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>牧守令Id</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>牧守令时间</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂机经验间隔</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>HangExpInteval</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>HangMaxTime</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大挂机时间</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1466,7 +1526,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -1502,6 +1562,7 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4"/>
@@ -1792,7 +1853,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1922,17 +1983,17 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>270</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>271</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>9</v>
@@ -1945,14 +2006,14 @@
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
@@ -1973,13 +2034,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C36" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F60" sqref="F60"/>
+      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2984,10 +3045,10 @@
         <v>144</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D47" s="4">
         <v>4</v>
@@ -3000,7 +3061,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>145</v>
       </c>
@@ -3008,20 +3069,20 @@
         <v>136</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
       </c>
       <c r="E48" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" ht="33" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>146</v>
       </c>
@@ -3029,13 +3090,13 @@
         <v>137</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
       </c>
       <c r="E49" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -3068,10 +3129,10 @@
         <v>148</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D51" s="4">
         <v>4</v>
@@ -3081,7 +3142,7 @@
       <c r="G51" s="7"/>
       <c r="H51" s="9"/>
       <c r="I51" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3089,10 +3150,10 @@
         <v>149</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -3110,10 +3171,10 @@
         <v>150</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -3131,17 +3192,17 @@
         <v>151</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D54" s="4">
         <v>2</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -3152,10 +3213,10 @@
         <v>152</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D55" s="4">
         <v>4</v>
@@ -3164,7 +3225,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I55" s="4"/>
     </row>
@@ -3173,10 +3234,10 @@
         <v>153</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -3194,10 +3255,10 @@
         <v>154</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -3216,10 +3277,10 @@
         <v>155</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -3237,10 +3298,10 @@
         <v>156</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -3253,6 +3314,90 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>157</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>158</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D61" s="4">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>14</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>159</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>2</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>160</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D63" s="4">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -3264,25 +3409,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="73.625" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="19.75" customWidth="1"/>
-    <col min="9" max="9" width="15.25" customWidth="1"/>
+    <col min="4" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="25.5" customWidth="1"/>
+    <col min="7" max="7" width="73.625" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -3296,22 +3441,25 @@
         <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -3324,52 +3472,58 @@
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>101</v>
       </c>
@@ -3377,24 +3531,27 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>50</v>
       </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>102</v>
       </c>
@@ -3402,24 +3559,27 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="H5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I5" s="4">
         <v>50</v>
       </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>103</v>
       </c>
@@ -3427,24 +3587,27 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="H6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I6" s="4">
         <v>50</v>
       </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>104</v>
       </c>
@@ -3454,16 +3617,19 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>105</v>
       </c>
@@ -3473,16 +3639,19 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>106</v>
       </c>
@@ -3492,14 +3661,83 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>107</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>108</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>109</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -3526,50 +3764,50 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3580,10 +3818,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -4602,11 +4840,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4625,13 +4863,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>192</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>193</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>21</v>
@@ -4654,16 +4892,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>194</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>195</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>30</v>
@@ -4683,13 +4921,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>38</v>
@@ -4715,10 +4953,10 @@
         <v>10001</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>199</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="D4" s="15">
         <v>1</v>
@@ -4736,10 +4974,10 @@
         <v>10002</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>201</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>202</v>
       </c>
       <c r="D5" s="15">
         <v>1</v>
@@ -4757,10 +4995,10 @@
         <v>10003</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>203</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>204</v>
       </c>
       <c r="D6" s="15">
         <v>1</v>
@@ -4778,10 +5016,10 @@
         <v>10004</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>206</v>
       </c>
       <c r="D7" s="15">
         <v>1</v>
@@ -4799,10 +5037,10 @@
         <v>10005</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="D8" s="15">
         <v>1</v>
@@ -4820,10 +5058,10 @@
         <v>10006</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>209</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>210</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
@@ -4841,10 +5079,10 @@
         <v>10007</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>211</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>212</v>
       </c>
       <c r="D10" s="15">
         <v>1</v>
@@ -4862,10 +5100,10 @@
         <v>10008</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>213</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>214</v>
       </c>
       <c r="D11" s="15">
         <v>1</v>
@@ -4883,10 +5121,10 @@
         <v>10009</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>215</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>216</v>
       </c>
       <c r="D12" s="15">
         <v>1</v>
@@ -4904,10 +5142,10 @@
         <v>10010</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>217</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>218</v>
       </c>
       <c r="D13" s="15">
         <v>1</v>
@@ -4925,10 +5163,10 @@
         <v>10011</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>219</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>220</v>
       </c>
       <c r="D14" s="15">
         <v>1</v>
@@ -4946,16 +5184,16 @@
         <v>10012</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>222</v>
-      </c>
       <c r="D15" s="15">
         <v>1</v>
       </c>
       <c r="E15" s="15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -4967,16 +5205,16 @@
         <v>10013</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>224</v>
-      </c>
       <c r="D16" s="15">
         <v>1</v>
       </c>
       <c r="E16" s="15">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -4988,10 +5226,10 @@
         <v>10014</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>225</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>226</v>
       </c>
       <c r="D17" s="15">
         <v>1</v>
@@ -5009,10 +5247,10 @@
         <v>10015</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>227</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>228</v>
       </c>
       <c r="D18" s="15">
         <v>1</v>
@@ -5030,10 +5268,10 @@
         <v>10016</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>229</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>230</v>
       </c>
       <c r="D19" s="15">
         <v>1</v>
@@ -5051,10 +5289,10 @@
         <v>10017</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>231</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>232</v>
       </c>
       <c r="D20" s="15">
         <v>1</v>
@@ -5072,10 +5310,10 @@
         <v>10018</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>233</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>234</v>
       </c>
       <c r="D21" s="15">
         <v>1</v>
@@ -5093,10 +5331,10 @@
         <v>10019</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>235</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="D22" s="12">
         <v>1</v>
@@ -5110,10 +5348,10 @@
         <v>10020</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>237</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>238</v>
       </c>
       <c r="D23" s="12">
         <v>1</v>
@@ -5127,10 +5365,10 @@
         <v>10021</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>240</v>
       </c>
       <c r="D24" s="12">
         <v>1</v>
@@ -5144,10 +5382,10 @@
         <v>10022</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="D25" s="12">
         <v>1</v>
@@ -5161,10 +5399,10 @@
         <v>10023</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>243</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>244</v>
       </c>
       <c r="D26" s="12">
         <v>1</v>
@@ -5178,10 +5416,10 @@
         <v>10024</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D27" s="12">
         <v>1</v>
@@ -5195,10 +5433,10 @@
         <v>10025</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>246</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>247</v>
       </c>
       <c r="D28" s="12">
         <v>1</v>
@@ -5212,10 +5450,10 @@
         <v>10026</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D29" s="15">
         <v>1</v>
@@ -5229,10 +5467,10 @@
         <v>10027</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="D30" s="15">
         <v>1</v>
@@ -5246,10 +5484,10 @@
         <v>10028</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>248</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>249</v>
       </c>
       <c r="D31" s="12">
         <v>1</v>
@@ -5263,10 +5501,10 @@
         <v>10029</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>250</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>251</v>
       </c>
       <c r="D32" s="12">
         <v>1</v>
@@ -5280,10 +5518,10 @@
         <v>10030</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D33" s="12">
         <v>3</v>
@@ -5297,10 +5535,10 @@
         <v>10031</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>253</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>254</v>
       </c>
       <c r="D34" s="12">
         <v>3</v>
@@ -5314,10 +5552,10 @@
         <v>10032</v>
       </c>
       <c r="B35" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>255</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>256</v>
       </c>
       <c r="D35" s="12">
         <v>1</v>
@@ -5331,10 +5569,10 @@
         <v>10033</v>
       </c>
       <c r="B36" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>257</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>258</v>
       </c>
       <c r="D36" s="12">
         <v>1</v>
@@ -5348,10 +5586,10 @@
         <v>10034</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>260</v>
       </c>
       <c r="D37" s="12">
         <v>1</v>
@@ -5365,10 +5603,10 @@
         <v>10035</v>
       </c>
       <c r="B38" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>261</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>262</v>
       </c>
       <c r="D38" s="12">
         <v>1</v>
@@ -5382,10 +5620,10 @@
         <v>10036</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D39" s="15">
         <v>1</v>
@@ -5399,10 +5637,10 @@
         <v>10037</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>287</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>288</v>
       </c>
       <c r="D40" s="15">
         <v>1</v>
@@ -5416,10 +5654,10 @@
         <v>10038</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D41" s="15">
         <v>1</v>
@@ -5433,10 +5671,10 @@
         <v>10039</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D42" s="15">
         <v>1</v>
@@ -5450,10 +5688,10 @@
         <v>10040</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D43" s="15">
         <v>1</v>
@@ -5467,10 +5705,10 @@
         <v>10041</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D44" s="15">
         <v>1</v>
@@ -5484,10 +5722,10 @@
         <v>10042</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D45" s="15">
         <v>1</v>
@@ -5501,10 +5739,10 @@
         <v>10043</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D46" s="12">
         <v>1</v>
@@ -5518,10 +5756,10 @@
         <v>10044</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D47" s="15">
         <v>3</v>
@@ -5535,10 +5773,10 @@
         <v>10045</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D48" s="15">
         <v>1</v>
@@ -5552,10 +5790,10 @@
         <v>10046</v>
       </c>
       <c r="B49" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>263</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>264</v>
       </c>
       <c r="D49" s="12">
         <v>1</v>
@@ -5569,10 +5807,10 @@
         <v>10047</v>
       </c>
       <c r="B50" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>266</v>
       </c>
       <c r="D50" s="12">
         <v>1</v>
@@ -5586,10 +5824,10 @@
         <v>10048</v>
       </c>
       <c r="B51" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>267</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>268</v>
       </c>
       <c r="D51" s="12">
         <v>1</v>
@@ -5603,10 +5841,10 @@
         <v>10049</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D52" s="12">
         <v>1</v>
@@ -5620,10 +5858,10 @@
         <v>10050</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D53" s="12">
         <v>1</v>

--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZHJ_PROJECT\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\ExcelToLua\Excel\镇魂街\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="344">
   <si>
     <t>sheet名</t>
   </si>
@@ -1301,6 +1301,14 @@
   </si>
   <si>
     <t>行动力消耗-攻城战破城层</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉年华补发</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢你参加我们的嘉年华活动，拿去，这是你没领的奖励。</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -3409,10 +3417,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3738,6 +3746,28 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>110</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4840,8 +4870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="H27" sqref="H27"/>

--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\ExcelToLua\Excel\镇魂街\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="360">
   <si>
     <t>sheet名</t>
   </si>
@@ -404,9 +404,6 @@
   </si>
   <si>
     <t>好友招呼</t>
-  </si>
-  <si>
-    <t>这位少侠根骨清奇灵力非凡，不如加个好友？#吾算得今日大吉，若并肩战斗必将无往不胜！#今天份的快乐是你给的，成为我的伙伴好不？#遇到你真是太好了（づ￣3￣）づ╭❤～#小姐姐，我在妳的心裡迷路了，要不要帶我出來</t>
   </si>
   <si>
     <t>ChatMax</t>
@@ -1280,35 +1277,103 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>Sender</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>发件人</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇魂街居委会</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动力消耗-攻城战破城层</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉年华补发</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢你参加我们的嘉年华活动，拿去，这是你没领的奖励。</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeekPromoteDua</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉年华持续时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>7#7</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoFightWaitTime</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动战斗选技能等待时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你，第{0}赛季排名达到{1}，特发如下奖励以资鼓励</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>恭喜你，本周排名达到{0}，特发如下奖励以资鼓励</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜你，本赛季段位达到{0}，特发如下奖励以资鼓励</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sender</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>发件人</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>镇魂街居委会</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>行动力消耗-攻城战破城层</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉年华补发</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>感谢你参加我们的嘉年华活动，拿去，这是你没领的奖励。</t>
+    <t>品质色</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>QualityColor</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>EqpDeComGoldReback</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备分解金币返还比例</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>这位少侠根骨清奇灵力非凡，不如加个好友？#吾算得今日大吉，若并肩战斗必将无往不胜！#今天份的快乐是你给的，成为我的伙伴好不？#遇到你真是太好了（づ￣3￣）づ╭❤～#小姐姐，我在妳的心裡迷路了，要不要帶我出來</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaoYanBingTalkID</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章曹焱兵触发泡泡的关卡</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>10102,10103,10105,10107</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaoYanBingTalkNotice</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章曹焱兵触发泡泡的内容</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>我在街尾等你，来到我这才有资格成为寄灵人！#快速召唤守护灵，才能立于不败之地！#使用武灵技获得水晶，加速绝技释放！#调整站位或突破守护灵，继续前进！</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>efeade,5cd882,4ac6ef,d178ff,ffa82b,df4c4c,df4c4c,df4c4c</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1534,7 +1599,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -1571,6 +1636,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4"/>
@@ -1991,17 +2059,17 @@
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>9</v>
@@ -2014,14 +2082,14 @@
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
@@ -2042,13 +2110,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
+      <selection pane="bottomRight" activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2059,7 +2127,7 @@
     <col min="5" max="5" width="9.625" customWidth="1"/>
     <col min="6" max="6" width="22.625" customWidth="1"/>
     <col min="8" max="8" width="77.25" customWidth="1"/>
-    <col min="9" max="9" width="50.375" customWidth="1"/>
+    <col min="9" max="9" width="56.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -2688,7 +2756,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4" t="s">
-        <v>99</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2696,10 +2764,10 @@
         <v>127</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -2717,10 +2785,10 @@
         <v>128</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -2738,10 +2806,10 @@
         <v>129</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -2759,10 +2827,10 @@
         <v>130</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -2780,10 +2848,10 @@
         <v>131</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -2801,10 +2869,10 @@
         <v>132</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -2822,10 +2890,10 @@
         <v>133</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -2843,16 +2911,16 @@
         <v>134</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="D37" s="4">
         <v>1</v>
       </c>
       <c r="E37" s="4">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2864,10 +2932,10 @@
         <v>135</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -2885,10 +2953,10 @@
         <v>136</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -2906,10 +2974,10 @@
         <v>137</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -2927,17 +2995,17 @@
         <v>138</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D41" s="4">
         <v>2</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -2948,10 +3016,10 @@
         <v>139</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -2969,10 +3037,10 @@
         <v>140</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -2990,10 +3058,10 @@
         <v>141</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -3011,10 +3079,10 @@
         <v>142</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -3032,10 +3100,10 @@
         <v>143</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -3053,10 +3121,10 @@
         <v>144</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D47" s="4">
         <v>4</v>
@@ -3066,7 +3134,7 @@
       <c r="G47" s="7"/>
       <c r="H47" s="9"/>
       <c r="I47" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3074,10 +3142,10 @@
         <v>145</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -3095,10 +3163,10 @@
         <v>146</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -3116,10 +3184,10 @@
         <v>147</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -3137,10 +3205,10 @@
         <v>148</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D51" s="4">
         <v>4</v>
@@ -3150,7 +3218,7 @@
       <c r="G51" s="7"/>
       <c r="H51" s="9"/>
       <c r="I51" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3158,10 +3226,10 @@
         <v>149</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -3179,10 +3247,10 @@
         <v>150</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -3200,17 +3268,17 @@
         <v>151</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D54" s="4">
         <v>2</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -3221,10 +3289,10 @@
         <v>152</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="D55" s="4">
         <v>4</v>
@@ -3233,7 +3301,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I55" s="4"/>
     </row>
@@ -3242,10 +3310,10 @@
         <v>153</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -3263,10 +3331,10 @@
         <v>154</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -3285,10 +3353,10 @@
         <v>155</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -3306,17 +3374,17 @@
         <v>156</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>319</v>
-      </c>
       <c r="D59" s="4">
         <v>1</v>
       </c>
       <c r="E59" s="4">
-        <f>3600*8</f>
-        <v>28800</v>
+        <f>3600*20</f>
+        <v>72000</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -3328,17 +3396,17 @@
         <v>157</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -3349,10 +3417,10 @@
         <v>158</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -3370,10 +3438,10 @@
         <v>159</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -3391,10 +3459,10 @@
         <v>160</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>330</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>331</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -3406,6 +3474,132 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>161</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D64" s="4">
+        <v>4</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="20">
+        <v>162</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="D65" s="20">
+        <v>1</v>
+      </c>
+      <c r="E65" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+    </row>
+    <row r="66" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>163</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D66" s="4">
+        <v>5</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>164</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D67" s="4">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>165</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D68" s="4">
+        <v>4</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>166</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D69" s="4">
+        <v>5</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4" t="s">
+        <v>358</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -3419,8 +3613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3440,31 +3634,31 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3481,54 +3675,54 @@
         <v>31</v>
       </c>
       <c r="E2" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>322</v>
-      </c>
       <c r="H2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -3539,20 +3733,20 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="I4" s="4">
         <v>50</v>
@@ -3567,20 +3761,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I5" s="4">
         <v>50</v>
@@ -3595,20 +3789,20 @@
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I6" s="4">
         <v>50</v>
@@ -3625,13 +3819,13 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -3647,13 +3841,13 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -3669,13 +3863,13 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -3691,13 +3885,13 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>335</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -3713,13 +3907,13 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -3735,13 +3929,13 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -3757,13 +3951,13 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>343</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -3794,50 +3988,50 @@
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -3848,10 +4042,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
@@ -4871,10 +5065,10 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27"/>
+      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4893,13 +5087,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>192</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>21</v>
@@ -4922,16 +5116,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>194</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>30</v>
@@ -4951,13 +5145,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>38</v>
@@ -4983,10 +5177,10 @@
         <v>10001</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>199</v>
       </c>
       <c r="D4" s="15">
         <v>1</v>
@@ -5004,10 +5198,10 @@
         <v>10002</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>200</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>201</v>
       </c>
       <c r="D5" s="15">
         <v>1</v>
@@ -5025,10 +5219,10 @@
         <v>10003</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>203</v>
       </c>
       <c r="D6" s="15">
         <v>1</v>
@@ -5046,10 +5240,10 @@
         <v>10004</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>204</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>205</v>
       </c>
       <c r="D7" s="15">
         <v>1</v>
@@ -5067,10 +5261,10 @@
         <v>10005</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>207</v>
       </c>
       <c r="D8" s="15">
         <v>1</v>
@@ -5088,10 +5282,10 @@
         <v>10006</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="D9" s="15">
         <v>1</v>
@@ -5109,10 +5303,10 @@
         <v>10007</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>211</v>
       </c>
       <c r="D10" s="15">
         <v>1</v>
@@ -5130,10 +5324,10 @@
         <v>10008</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>212</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>213</v>
       </c>
       <c r="D11" s="15">
         <v>1</v>
@@ -5151,10 +5345,10 @@
         <v>10009</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>214</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>215</v>
       </c>
       <c r="D12" s="15">
         <v>1</v>
@@ -5172,10 +5366,10 @@
         <v>10010</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>216</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>217</v>
       </c>
       <c r="D13" s="15">
         <v>1</v>
@@ -5193,10 +5387,10 @@
         <v>10011</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="D14" s="15">
         <v>1</v>
@@ -5214,10 +5408,10 @@
         <v>10012</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>220</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>221</v>
       </c>
       <c r="D15" s="15">
         <v>1</v>
@@ -5235,10 +5429,10 @@
         <v>10013</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>222</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>223</v>
       </c>
       <c r="D16" s="15">
         <v>1</v>
@@ -5256,10 +5450,10 @@
         <v>10014</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>225</v>
       </c>
       <c r="D17" s="15">
         <v>1</v>
@@ -5277,10 +5471,10 @@
         <v>10015</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>226</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>227</v>
       </c>
       <c r="D18" s="15">
         <v>1</v>
@@ -5298,10 +5492,10 @@
         <v>10016</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>228</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>229</v>
       </c>
       <c r="D19" s="15">
         <v>1</v>
@@ -5319,10 +5513,10 @@
         <v>10017</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>230</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>231</v>
       </c>
       <c r="D20" s="15">
         <v>1</v>
@@ -5340,10 +5534,10 @@
         <v>10018</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>232</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>233</v>
       </c>
       <c r="D21" s="15">
         <v>1</v>
@@ -5361,10 +5555,10 @@
         <v>10019</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>234</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>235</v>
       </c>
       <c r="D22" s="12">
         <v>1</v>
@@ -5378,10 +5572,10 @@
         <v>10020</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>237</v>
       </c>
       <c r="D23" s="12">
         <v>1</v>
@@ -5395,10 +5589,10 @@
         <v>10021</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>239</v>
       </c>
       <c r="D24" s="12">
         <v>1</v>
@@ -5412,10 +5606,10 @@
         <v>10022</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>240</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>241</v>
       </c>
       <c r="D25" s="12">
         <v>1</v>
@@ -5429,10 +5623,10 @@
         <v>10023</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>242</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>243</v>
       </c>
       <c r="D26" s="12">
         <v>1</v>
@@ -5446,10 +5640,10 @@
         <v>10024</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D27" s="12">
         <v>1</v>
@@ -5463,10 +5657,10 @@
         <v>10025</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>246</v>
       </c>
       <c r="D28" s="12">
         <v>1</v>
@@ -5480,10 +5674,10 @@
         <v>10026</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D29" s="15">
         <v>1</v>
@@ -5497,10 +5691,10 @@
         <v>10027</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D30" s="15">
         <v>1</v>
@@ -5514,10 +5708,10 @@
         <v>10028</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="D31" s="12">
         <v>1</v>
@@ -5531,10 +5725,10 @@
         <v>10029</v>
       </c>
       <c r="B32" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>250</v>
       </c>
       <c r="D32" s="12">
         <v>1</v>
@@ -5548,10 +5742,10 @@
         <v>10030</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D33" s="12">
         <v>3</v>
@@ -5565,10 +5759,10 @@
         <v>10031</v>
       </c>
       <c r="B34" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>252</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>253</v>
       </c>
       <c r="D34" s="12">
         <v>3</v>
@@ -5582,10 +5776,10 @@
         <v>10032</v>
       </c>
       <c r="B35" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>254</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>255</v>
       </c>
       <c r="D35" s="12">
         <v>1</v>
@@ -5599,10 +5793,10 @@
         <v>10033</v>
       </c>
       <c r="B36" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="D36" s="12">
         <v>1</v>
@@ -5616,10 +5810,10 @@
         <v>10034</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="12" t="s">
         <v>258</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>259</v>
       </c>
       <c r="D37" s="12">
         <v>1</v>
@@ -5633,10 +5827,10 @@
         <v>10035</v>
       </c>
       <c r="B38" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>260</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>261</v>
       </c>
       <c r="D38" s="12">
         <v>1</v>
@@ -5650,16 +5844,16 @@
         <v>10036</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D39" s="15">
         <v>1</v>
       </c>
       <c r="E39" s="15">
-        <v>180</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5667,16 +5861,16 @@
         <v>10037</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>287</v>
-      </c>
       <c r="D40" s="15">
         <v>1</v>
       </c>
       <c r="E40" s="15">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5684,10 +5878,10 @@
         <v>10038</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D41" s="15">
         <v>1</v>
@@ -5701,10 +5895,10 @@
         <v>10039</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D42" s="15">
         <v>1</v>
@@ -5718,10 +5912,10 @@
         <v>10040</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D43" s="15">
         <v>1</v>
@@ -5735,16 +5929,16 @@
         <v>10041</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D44" s="15">
         <v>1</v>
       </c>
       <c r="E44" s="15">
-        <v>180</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -5752,16 +5946,16 @@
         <v>10042</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D45" s="15">
         <v>1</v>
       </c>
       <c r="E45" s="15">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -5769,10 +5963,10 @@
         <v>10043</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D46" s="12">
         <v>1</v>
@@ -5786,10 +5980,10 @@
         <v>10044</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D47" s="15">
         <v>3</v>
@@ -5803,10 +5997,10 @@
         <v>10045</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D48" s="15">
         <v>1</v>
@@ -5820,10 +6014,10 @@
         <v>10046</v>
       </c>
       <c r="B49" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>262</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>263</v>
       </c>
       <c r="D49" s="12">
         <v>1</v>
@@ -5837,10 +6031,10 @@
         <v>10047</v>
       </c>
       <c r="B50" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>264</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>265</v>
       </c>
       <c r="D50" s="12">
         <v>1</v>
@@ -5854,10 +6048,10 @@
         <v>10048</v>
       </c>
       <c r="B51" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>266</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>267</v>
       </c>
       <c r="D51" s="12">
         <v>1</v>
@@ -5871,10 +6065,10 @@
         <v>10049</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D52" s="12">
         <v>1</v>
@@ -5888,10 +6082,10 @@
         <v>10050</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D53" s="12">
         <v>1</v>

--- a/Excel/镇魂街/global.全局.xlsx
+++ b/Excel/镇魂街/global.全局.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZHJ_PROJECT\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="388">
   <si>
     <t>sheet名</t>
   </si>
@@ -671,25 +671,16 @@
     <t>战斗中聊天泡泡的停留时间（单位：秒）</t>
   </si>
   <si>
-    <t>JLREquPartName</t>
-  </si>
-  <si>
     <t>寄灵人装备部位名称</t>
   </si>
   <si>
     <t>香囊#兜帽#裤子#衣服#鞋子#护腕#项链#戒指</t>
   </si>
   <si>
-    <t>SHLEquPartName</t>
-  </si>
-  <si>
     <t>守护灵装备部位名称</t>
   </si>
   <si>
     <t>护心镜#头盔#腿甲#胸甲#战靴#臂甲#护颈#扳指</t>
-  </si>
-  <si>
-    <t>EquPackLimit</t>
   </si>
   <si>
     <t>装备背包数量上限</t>
@@ -1268,6 +1259,110 @@
   </si>
   <si>
     <t>牧守令时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人防御分子系数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人防御分母系数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵防御分子系数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵防御分母系数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小攻击作用系数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>JlrA</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>JlrB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShlA</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShlB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinAtkRate</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>JLREquPartName</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHLEquPartName</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquPackLimit</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>QualityColor</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>QualityPic</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质图片</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_106,ui_dtex_Quality_107,ui_dtex_Quality_108,ui_dtex_Quality_109,ui_dtex_Quality_110,ui_dtex_Quality_110,ui_dtex_Quality_110</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDailyBuy</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,30,50,70,100,120,150,200,300,500</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDailyRecover</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDailyMaxTimes</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>传记本最大积累次数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>传记本购买消耗（长度为最大购买次数）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardDailyIniTimes</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>传记本每日回复次数</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>传记本初始次数</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2010,18 +2105,18 @@
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G8" s="8" t="b">
         <v>1</v>
@@ -2040,19 +2135,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G78" sqref="G78"/>
+      <selection pane="bottomRight" activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
     <col min="5" max="5" width="9.625" customWidth="1"/>
     <col min="6" max="6" width="22.625" customWidth="1"/>
@@ -2421,7 +2516,7 @@
         <v>114</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>73</v>
@@ -3219,7 +3314,7 @@
         <v>152</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>153</v>
@@ -3264,7 +3359,7 @@
         <v>157</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D57" s="8">
         <v>1</v>
@@ -3335,7 +3430,7 @@
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="16" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -3451,7 +3546,7 @@
         <v>163</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>70</v>
+        <v>375</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>175</v>
@@ -3556,10 +3651,10 @@
         <v>169</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D71" s="15">
         <v>1</v>
@@ -3577,10 +3672,10 @@
         <v>170</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D72" s="15">
         <v>4</v>
@@ -3589,72 +3684,286 @@
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
       <c r="H72" s="15" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I72" s="15"/>
     </row>
     <row r="73" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="8">
+      <c r="A73" s="15">
+        <v>171</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="D73" s="15">
+        <v>1</v>
+      </c>
+      <c r="E73" s="15">
+        <f>7/11</f>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+    </row>
+    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="15">
+        <v>172</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="D74" s="15">
+        <v>1</v>
+      </c>
+      <c r="E74" s="15">
+        <f>14/11</f>
+        <v>1.2727272727272727</v>
+      </c>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="15">
+        <v>173</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="D75" s="15">
+        <v>1</v>
+      </c>
+      <c r="E75" s="15">
+        <f>11/41</f>
+        <v>0.26829268292682928</v>
+      </c>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+    </row>
+    <row r="76" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="15">
+        <v>174</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="D76" s="15">
+        <v>1</v>
+      </c>
+      <c r="E76" s="15">
+        <f>22/41</f>
+        <v>0.53658536585365857</v>
+      </c>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+    </row>
+    <row r="77" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="15">
+        <v>175</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="D77" s="15">
+        <v>1</v>
+      </c>
+      <c r="E77" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+    </row>
+    <row r="78" spans="1:9" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="15">
+        <v>176</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D78" s="15">
+        <v>5</v>
+      </c>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="15">
+        <v>177</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="D79" s="15">
+        <v>1</v>
+      </c>
+      <c r="E79" s="15">
+        <v>10</v>
+      </c>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+    </row>
+    <row r="80" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="15">
+        <v>178</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="D80" s="15">
+        <v>1</v>
+      </c>
+      <c r="E80" s="15">
+        <v>30</v>
+      </c>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+    </row>
+    <row r="81" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="15">
+        <v>179</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="D81" s="15">
+        <v>4</v>
+      </c>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="I81" s="15"/>
+    </row>
+    <row r="82" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="15">
+        <v>180</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D82" s="15">
+        <v>1</v>
+      </c>
+      <c r="E82" s="15">
+        <v>10</v>
+      </c>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A83" s="8">
         <v>201</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B83" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="D83" s="8">
+        <v>5</v>
+      </c>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D73" s="8">
+    </row>
+    <row r="84" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="8">
+        <v>202</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D84" s="8">
         <v>5</v>
       </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="8">
-        <v>202</v>
-      </c>
-      <c r="B74" s="8" t="s">
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C74" s="8" t="s">
+    </row>
+    <row r="85" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="8">
+        <v>203</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D74" s="8">
-        <v>5</v>
-      </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="8">
-        <v>203</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D75" s="8">
-        <v>1</v>
-      </c>
-      <c r="E75" s="8">
+      <c r="D85" s="8">
+        <v>1</v>
+      </c>
+      <c r="E85" s="8">
         <v>400</v>
       </c>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -3689,31 +3998,31 @@
         <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>200</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3730,54 +4039,54 @@
         <v>32</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3790,13 +4099,13 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -3812,13 +4121,13 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>220</v>
-      </c>
       <c r="G5" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -3834,13 +4143,13 @@
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -3856,13 +4165,13 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
@@ -3878,13 +4187,13 @@
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -3900,13 +4209,13 @@
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -3922,13 +4231,13 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -3944,13 +4253,13 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H11" s="8">
         <v>1401010</v>
@@ -3970,13 +4279,13 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H12" s="8">
         <v>1401010</v>
@@ -4011,50 +4320,50 @@
         <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
@@ -4065,10 +4374,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
@@ -5087,11 +5396,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5200,10 +5509,10 @@
         <v>10001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -5218,10 +5527,10 @@
         <v>10002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -5235,10 +5544,10 @@
         <v>10003</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -5252,10 +5561,10 @@
         <v>10004</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -5269,10 +5578,10 @@
         <v>10005</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -5286,10 +5595,10 @@
         <v>10006</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -5303,10 +5612,10 @@
         <v>10007</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -5320,10 +5629,10 @@
         <v>10008</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -5337,10 +5646,10 @@
         <v>10009</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -5354,10 +5663,10 @@
         <v>10010</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -5371,10 +5680,10 @@
         <v>10011</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -5388,10 +5697,10 @@
         <v>10012</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -5405,10 +5714,10 @@
         <v>10013</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -5422,10 +5731,10 @@
         <v>10014</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -5439,10 +5748,10 @@
         <v>10015</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -5456,10 +5765,10 @@
         <v>10016</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -5473,10 +5782,10 @@
         <v>10017</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -5490,10 +5799,10 @@
         <v>10018</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -5507,10 +5816,10 @@
         <v>10019</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D22" s="19">
         <v>1</v>
@@ -5524,10 +5833,10 @@
         <v>10020</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -5541,10 +5850,10 @@
         <v>10021</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -5558,10 +5867,10 @@
         <v>10022</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -5575,10 +5884,10 @@
         <v>10023</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -5592,10 +5901,10 @@
         <v>10024</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -5609,10 +5918,10 @@
         <v>10025</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -5626,10 +5935,10 @@
         <v>10026</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -5643,10 +5952,10 @@
         <v>10027</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -5660,10 +5969,10 @@
         <v>10028</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D31" s="19">
         <v>1</v>
@@ -5677,10 +5986,10 @@
         <v>10029</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -5694,10 +6003,10 @@
         <v>10030</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D33" s="1">
         <v>3</v>
@@ -5711,10 +6020,10 @@
         <v>10031</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
@@ -5728,10 +6037,10 @@
         <v>10032</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -5745,10 +6054,10 @@
         <v>10033</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -5762,10 +6071,10 @@
         <v>10034</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -5779,10 +6088,10 @@
         <v>10035</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -5796,10 +6105,10 @@
         <v>10036</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -5813,10 +6122,10 @@
         <v>10037</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -5830,10 +6139,10 @@
         <v>10038</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -5847,10 +6156,10 @@
         <v>10039</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -5864,10 +6173,10 @@
         <v>10040</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
@@ -5881,10 +6190,10 @@
         <v>10041</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -5898,10 +6207,10 @@
         <v>10042</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -5915,10 +6224,10 @@
         <v>10043</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -5932,10 +6241,10 @@
         <v>10044</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D47" s="1">
         <v>3</v>
@@ -5949,10 +6258,10 @@
         <v>10045</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
@@ -5966,10 +6275,10 @@
         <v>10046</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -5983,10 +6292,10 @@
         <v>10047</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -6000,10 +6309,10 @@
         <v>10048</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -6017,10 +6326,10 @@
         <v>10049</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -6034,10 +6343,10 @@
         <v>10050</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -6066,26 +6375,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
